--- a/data/trans_orig/P34D2H-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P34D2H-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32898883-3D3C-415F-BCAE-9F5BCDF050AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C148D02-9B8A-4094-ACEC-BC03237BD634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{21CCD3C2-D8AF-4E5C-B237-A14FD81EE3EE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8D761685-4775-4726-B8B7-B2B7EC27A062}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="452">
   <si>
     <t>Población según el número de horas por día durante las que  realizó actividades físicas intensas en 2015 (Tasa respuesta: 9,09%)</t>
   </si>
@@ -86,1300 +86,1309 @@
     <t>1,16%</t>
   </si>
   <si>
-    <t>6,61%</t>
+    <t>5,81%</t>
   </si>
   <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>5,37%</t>
+    <t>4,96%</t>
   </si>
   <si>
     <t>9,16%</t>
   </si>
   <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
   </si>
   <si>
     <t>8,34%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
   </si>
   <si>
     <t>5,01%</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
   </si>
   <si>
     <t>4,03%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
   </si>
   <si>
     <t>7,12%</t>
   </si>
   <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
     <t>2,51%</t>
   </si>
   <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
   </si>
   <si>
     <t>16,0%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1794,7 +1803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F638684D-7CDE-4C35-8DB4-C58ED69DD41D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5AE31FD-3CA6-4FC0-9BBD-A33FC31D5F02}">
   <dimension ref="A1:Q112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2035,13 +2044,13 @@
         <v>1064</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>8</v>
@@ -2050,13 +2059,13 @@
         <v>9169</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2122,13 +2131,13 @@
         <v>4432</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2152,13 +2161,13 @@
         <v>4432</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2173,13 +2182,13 @@
         <v>6296</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -2188,13 +2197,13 @@
         <v>1709</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -2203,13 +2212,13 @@
         <v>8005</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2224,13 +2233,13 @@
         <v>2830</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2254,13 +2263,13 @@
         <v>2830</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2275,13 +2284,13 @@
         <v>7435</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2305,13 +2314,13 @@
         <v>7435</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2326,13 +2335,13 @@
         <v>25272</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -2341,10 +2350,10 @@
         <v>5881</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>55</v>
@@ -2380,10 +2389,10 @@
         <v>59</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -2392,13 +2401,13 @@
         <v>7112</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M13" s="7">
         <v>31</v>
@@ -2407,13 +2416,13 @@
         <v>33164</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2428,13 +2437,13 @@
         <v>6997</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -2443,13 +2452,13 @@
         <v>5709</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M14" s="7">
         <v>12</v>
@@ -2458,13 +2467,13 @@
         <v>12706</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2479,13 +2488,13 @@
         <v>88440</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H15" s="7">
         <v>21</v>
@@ -2494,13 +2503,13 @@
         <v>21475</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M15" s="7">
         <v>100</v>
@@ -2509,18 +2518,18 @@
         <v>109915</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5">
         <v>10</v>
@@ -2538,7 +2547,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2553,7 +2562,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2568,7 +2577,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,7 +2598,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2604,7 +2613,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -2619,7 +2628,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2634,13 +2643,13 @@
         <v>2168</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -2649,13 +2658,13 @@
         <v>985</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -2664,13 +2673,13 @@
         <v>3153</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2691,7 +2700,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2706,7 +2715,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -2721,7 +2730,7 @@
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2742,7 +2751,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2757,7 +2766,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2772,7 +2781,7 @@
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2793,7 +2802,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2808,7 +2817,7 @@
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -2823,7 +2832,7 @@
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,7 +2853,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2859,7 +2868,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2874,7 +2883,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2889,13 +2898,13 @@
         <v>6591</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -2904,13 +2913,13 @@
         <v>996</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M23" s="7">
         <v>7</v>
@@ -2919,13 +2928,13 @@
         <v>7587</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2940,13 +2949,13 @@
         <v>9956</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -2955,13 +2964,13 @@
         <v>1089</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M24" s="7">
         <v>10</v>
@@ -2970,13 +2979,13 @@
         <v>11045</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2991,13 +3000,13 @@
         <v>39303</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -3006,13 +3015,13 @@
         <v>6878</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M25" s="7">
         <v>44</v>
@@ -3021,13 +3030,13 @@
         <v>46181</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,13 +3051,13 @@
         <v>3223</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -3057,13 +3066,13 @@
         <v>2974</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -3072,13 +3081,13 @@
         <v>6196</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3093,13 +3102,13 @@
         <v>61241</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H27" s="7">
         <v>13</v>
@@ -3108,13 +3117,13 @@
         <v>12921</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M27" s="7">
         <v>70</v>
@@ -3123,18 +3132,18 @@
         <v>74162</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B28" s="5">
         <v>10</v>
@@ -3152,7 +3161,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3167,7 +3176,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3182,7 +3191,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,7 +3212,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -3218,7 +3227,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -3233,7 +3242,7 @@
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,28 +3257,28 @@
         <v>964</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7">
-        <v>0</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -3278,13 +3287,13 @@
         <v>964</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3299,13 +3308,13 @@
         <v>1237</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -3320,7 +3329,7 @@
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -3329,13 +3338,13 @@
         <v>1237</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3356,7 +3365,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3371,7 +3380,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3386,7 +3395,7 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,7 +3416,7 @@
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -3422,7 +3431,7 @@
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -3437,7 +3446,7 @@
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,7 +3467,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -3467,13 +3476,13 @@
         <v>884</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -3482,13 +3491,13 @@
         <v>884</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,13 +3512,13 @@
         <v>865</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -3524,7 +3533,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -3533,13 +3542,13 @@
         <v>865</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3554,13 +3563,13 @@
         <v>11997</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -3569,13 +3578,13 @@
         <v>997</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M36" s="7">
         <v>14</v>
@@ -3584,13 +3593,13 @@
         <v>12994</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3605,13 +3614,13 @@
         <v>10459</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H37" s="7">
         <v>4</v>
@@ -3620,13 +3629,13 @@
         <v>3761</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M37" s="7">
         <v>15</v>
@@ -3635,13 +3644,13 @@
         <v>14219</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3656,13 +3665,13 @@
         <v>1931</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -3671,13 +3680,13 @@
         <v>1769</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M38" s="7">
         <v>4</v>
@@ -3686,13 +3695,13 @@
         <v>3700</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3707,13 +3716,13 @@
         <v>27452</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H39" s="7">
         <v>8</v>
@@ -3722,13 +3731,13 @@
         <v>7411</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M39" s="7">
         <v>37</v>
@@ -3737,18 +3746,18 @@
         <v>34863</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B40" s="5">
         <v>10</v>
@@ -3766,7 +3775,7 @@
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -3781,7 +3790,7 @@
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -3796,7 +3805,7 @@
         <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,7 +3826,7 @@
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -3832,7 +3841,7 @@
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -3847,7 +3856,7 @@
         <v>11</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3868,7 +3877,7 @@
         <v>11</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -3883,7 +3892,7 @@
         <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -3898,7 +3907,7 @@
         <v>11</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3919,7 +3928,7 @@
         <v>11</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -3934,7 +3943,7 @@
         <v>11</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -3949,7 +3958,7 @@
         <v>11</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3964,13 +3973,13 @@
         <v>973</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
@@ -3979,13 +3988,13 @@
         <v>1536</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M44" s="7">
         <v>2</v>
@@ -3994,13 +4003,13 @@
         <v>2509</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4015,13 +4024,13 @@
         <v>1948</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -4036,7 +4045,7 @@
         <v>11</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M45" s="7">
         <v>2</v>
@@ -4045,13 +4054,13 @@
         <v>1948</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4072,7 +4081,7 @@
         <v>11</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -4081,13 +4090,13 @@
         <v>899</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M46" s="7">
         <v>1</v>
@@ -4096,13 +4105,13 @@
         <v>899</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,13 +4126,13 @@
         <v>2711</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>71</v>
+        <v>185</v>
       </c>
       <c r="H47" s="7">
         <v>2</v>
@@ -4132,13 +4141,13 @@
         <v>1898</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M47" s="7">
         <v>5</v>
@@ -4147,13 +4156,13 @@
         <v>4609</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4168,13 +4177,13 @@
         <v>17226</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H48" s="7">
         <v>4</v>
@@ -4183,13 +4192,13 @@
         <v>3734</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M48" s="7">
         <v>21</v>
@@ -4198,13 +4207,13 @@
         <v>20960</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4219,13 +4228,13 @@
         <v>21427</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H49" s="7">
         <v>14</v>
@@ -4234,13 +4243,13 @@
         <v>14368</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M49" s="7">
         <v>33</v>
@@ -4249,13 +4258,13 @@
         <v>35794</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,13 +4279,13 @@
         <v>19552</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H50" s="7">
         <v>8</v>
@@ -4285,13 +4294,13 @@
         <v>8036</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M50" s="7">
         <v>25</v>
@@ -4300,13 +4309,13 @@
         <v>27588</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,13 +4330,13 @@
         <v>63837</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H51" s="7">
         <v>30</v>
@@ -4336,13 +4345,13 @@
         <v>30470</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M51" s="7">
         <v>89</v>
@@ -4351,18 +4360,18 @@
         <v>94307</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B52" s="5">
         <v>10</v>
@@ -4380,7 +4389,7 @@
         <v>11</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
@@ -4395,7 +4404,7 @@
         <v>11</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M52" s="7">
         <v>0</v>
@@ -4410,7 +4419,7 @@
         <v>11</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4431,7 +4440,7 @@
         <v>11</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
@@ -4446,7 +4455,7 @@
         <v>11</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M53" s="7">
         <v>0</v>
@@ -4461,7 +4470,7 @@
         <v>11</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,7 +4491,7 @@
         <v>11</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -4497,7 +4506,7 @@
         <v>11</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M54" s="7">
         <v>0</v>
@@ -4512,7 +4521,7 @@
         <v>11</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,7 +4542,7 @@
         <v>11</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -4548,7 +4557,7 @@
         <v>11</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M55" s="7">
         <v>0</v>
@@ -4563,7 +4572,7 @@
         <v>11</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4578,13 +4587,13 @@
         <v>1267</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -4599,7 +4608,7 @@
         <v>11</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M56" s="7">
         <v>1</v>
@@ -4608,13 +4617,13 @@
         <v>1267</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="P56" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4635,7 +4644,7 @@
         <v>11</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H57" s="7">
         <v>0</v>
@@ -4650,7 +4659,7 @@
         <v>11</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M57" s="7">
         <v>0</v>
@@ -4665,7 +4674,7 @@
         <v>11</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4680,13 +4689,13 @@
         <v>957</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
@@ -4701,7 +4710,7 @@
         <v>11</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M58" s="7">
         <v>1</v>
@@ -4710,13 +4719,13 @@
         <v>957</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P58" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4731,13 +4740,13 @@
         <v>1948</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
@@ -4752,7 +4761,7 @@
         <v>11</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M59" s="7">
         <v>2</v>
@@ -4761,13 +4770,13 @@
         <v>1948</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="P59" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4782,13 +4791,13 @@
         <v>11040</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="H60" s="7">
         <v>4</v>
@@ -4797,13 +4806,13 @@
         <v>3753</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="M60" s="7">
         <v>15</v>
@@ -4812,13 +4821,13 @@
         <v>14793</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4833,13 +4842,13 @@
         <v>10228</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H61" s="7">
         <v>6</v>
@@ -4848,13 +4857,13 @@
         <v>5542</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="M61" s="7">
         <v>17</v>
@@ -4863,13 +4872,13 @@
         <v>15770</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4884,13 +4893,13 @@
         <v>2906</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -4905,7 +4914,7 @@
         <v>11</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M62" s="7">
         <v>3</v>
@@ -4914,13 +4923,13 @@
         <v>2906</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4935,13 +4944,13 @@
         <v>28346</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H63" s="7">
         <v>10</v>
@@ -4950,13 +4959,13 @@
         <v>9295</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M63" s="7">
         <v>39</v>
@@ -4965,18 +4974,18 @@
         <v>37641</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B64" s="5">
         <v>10</v>
@@ -4994,7 +5003,7 @@
         <v>11</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
@@ -5009,7 +5018,7 @@
         <v>11</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="M64" s="7">
         <v>0</v>
@@ -5024,7 +5033,7 @@
         <v>11</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -5045,7 +5054,7 @@
         <v>11</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
@@ -5060,7 +5069,7 @@
         <v>11</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="M65" s="7">
         <v>0</v>
@@ -5075,7 +5084,7 @@
         <v>11</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5096,7 +5105,7 @@
         <v>11</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="H66" s="7">
         <v>0</v>
@@ -5111,7 +5120,7 @@
         <v>11</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="M66" s="7">
         <v>0</v>
@@ -5126,7 +5135,7 @@
         <v>11</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -5147,7 +5156,7 @@
         <v>11</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="H67" s="7">
         <v>0</v>
@@ -5162,7 +5171,7 @@
         <v>11</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="M67" s="7">
         <v>0</v>
@@ -5177,7 +5186,7 @@
         <v>11</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -5198,7 +5207,7 @@
         <v>11</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="H68" s="7">
         <v>0</v>
@@ -5213,7 +5222,7 @@
         <v>11</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="M68" s="7">
         <v>0</v>
@@ -5228,7 +5237,7 @@
         <v>11</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -5249,7 +5258,7 @@
         <v>11</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="H69" s="7">
         <v>0</v>
@@ -5264,7 +5273,7 @@
         <v>11</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="M69" s="7">
         <v>0</v>
@@ -5279,7 +5288,7 @@
         <v>11</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -5294,13 +5303,13 @@
         <v>961</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>255</v>
+        <v>164</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
@@ -5315,7 +5324,7 @@
         <v>11</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="M70" s="7">
         <v>1</v>
@@ -5324,13 +5333,13 @@
         <v>961</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="P70" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5351,7 +5360,7 @@
         <v>11</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="H71" s="7">
         <v>0</v>
@@ -5366,7 +5375,7 @@
         <v>11</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="M71" s="7">
         <v>0</v>
@@ -5381,7 +5390,7 @@
         <v>11</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5396,13 +5405,13 @@
         <v>8324</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H72" s="7">
         <v>5</v>
@@ -5411,13 +5420,13 @@
         <v>4661</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M72" s="7">
         <v>13</v>
@@ -5426,13 +5435,13 @@
         <v>12985</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5447,13 +5456,13 @@
         <v>24272</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="H73" s="7">
         <v>5</v>
@@ -5462,13 +5471,13 @@
         <v>4599</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="M73" s="7">
         <v>30</v>
@@ -5477,13 +5486,13 @@
         <v>28870</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5498,13 +5507,13 @@
         <v>901</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H74" s="7">
         <v>1</v>
@@ -5513,13 +5522,13 @@
         <v>1025</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K74" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="M74" s="7">
         <v>2</v>
@@ -5528,13 +5537,13 @@
         <v>1926</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="P74" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5549,13 +5558,13 @@
         <v>34458</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H75" s="7">
         <v>11</v>
@@ -5564,13 +5573,13 @@
         <v>10285</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M75" s="7">
         <v>46</v>
@@ -5579,18 +5588,18 @@
         <v>44742</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B76" s="5">
         <v>10</v>
@@ -5602,13 +5611,13 @@
         <v>1472</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="H76" s="7">
         <v>0</v>
@@ -5623,7 +5632,7 @@
         <v>11</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M76" s="7">
         <v>1</v>
@@ -5632,13 +5641,13 @@
         <v>1472</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="P76" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -5659,7 +5668,7 @@
         <v>11</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H77" s="7">
         <v>0</v>
@@ -5674,7 +5683,7 @@
         <v>11</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M77" s="7">
         <v>0</v>
@@ -5689,7 +5698,7 @@
         <v>11</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -5704,13 +5713,13 @@
         <v>3253</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H78" s="7">
         <v>0</v>
@@ -5725,7 +5734,7 @@
         <v>11</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M78" s="7">
         <v>3</v>
@@ -5734,13 +5743,13 @@
         <v>3253</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>34</v>
+        <v>298</v>
       </c>
       <c r="P78" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>48</v>
+        <v>300</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -5761,7 +5770,7 @@
         <v>11</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H79" s="7">
         <v>1</v>
@@ -5770,13 +5779,13 @@
         <v>929</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K79" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="M79" s="7">
         <v>1</v>
@@ -5785,13 +5794,13 @@
         <v>929</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="P79" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -5812,7 +5821,7 @@
         <v>11</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H80" s="7">
         <v>0</v>
@@ -5827,7 +5836,7 @@
         <v>11</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M80" s="7">
         <v>0</v>
@@ -5842,7 +5851,7 @@
         <v>11</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -5857,13 +5866,13 @@
         <v>3174</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="H81" s="7">
         <v>0</v>
@@ -5878,7 +5887,7 @@
         <v>11</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M81" s="7">
         <v>3</v>
@@ -5887,13 +5896,13 @@
         <v>3174</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="P81" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -5908,13 +5917,13 @@
         <v>5294</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="H82" s="7">
         <v>0</v>
@@ -5929,7 +5938,7 @@
         <v>11</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M82" s="7">
         <v>4</v>
@@ -5938,13 +5947,13 @@
         <v>5294</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="P82" s="7" t="s">
-        <v>28</v>
+        <v>312</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -5959,13 +5968,13 @@
         <v>4368</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>71</v>
+        <v>316</v>
       </c>
       <c r="H83" s="7">
         <v>3</v>
@@ -5974,13 +5983,13 @@
         <v>2983</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>162</v>
+        <v>317</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="M83" s="7">
         <v>7</v>
@@ -5989,13 +5998,13 @@
         <v>7351</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="P83" s="7" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
@@ -6010,13 +6019,13 @@
         <v>29013</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="H84" s="7">
         <v>7</v>
@@ -6025,13 +6034,13 @@
         <v>7398</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="K84" s="7" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="M84" s="7">
         <v>33</v>
@@ -6040,13 +6049,13 @@
         <v>36410</v>
       </c>
       <c r="O84" s="7" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="P84" s="7" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
@@ -6061,13 +6070,13 @@
         <v>36585</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="H85" s="7">
         <v>17</v>
@@ -6076,13 +6085,13 @@
         <v>17196</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="K85" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="M85" s="7">
         <v>50</v>
@@ -6091,13 +6100,13 @@
         <v>53780</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="P85" s="7" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
@@ -6112,13 +6121,13 @@
         <v>10796</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="H86" s="7">
         <v>5</v>
@@ -6127,13 +6136,13 @@
         <v>6896</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="K86" s="7" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>336</v>
+        <v>150</v>
       </c>
       <c r="M86" s="7">
         <v>14</v>
@@ -6142,13 +6151,13 @@
         <v>17692</v>
       </c>
       <c r="O86" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="P86" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
@@ -6163,13 +6172,13 @@
         <v>93953</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H87" s="7">
         <v>33</v>
@@ -6178,13 +6187,13 @@
         <v>35402</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M87" s="7">
         <v>116</v>
@@ -6193,18 +6202,18 @@
         <v>129355</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P87" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q87" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="B88" s="5">
         <v>10</v>
@@ -6222,7 +6231,7 @@
         <v>11</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H88" s="7">
         <v>0</v>
@@ -6237,7 +6246,7 @@
         <v>11</v>
       </c>
       <c r="L88" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M88" s="7">
         <v>0</v>
@@ -6273,7 +6282,7 @@
         <v>11</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H89" s="7">
         <v>0</v>
@@ -6288,7 +6297,7 @@
         <v>11</v>
       </c>
       <c r="L89" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M89" s="7">
         <v>0</v>
@@ -6318,13 +6327,13 @@
         <v>921</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F90" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="H90" s="7">
         <v>0</v>
@@ -6339,7 +6348,7 @@
         <v>11</v>
       </c>
       <c r="L90" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M90" s="7">
         <v>1</v>
@@ -6348,13 +6357,13 @@
         <v>921</v>
       </c>
       <c r="O90" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="P90" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q90" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
@@ -6375,7 +6384,7 @@
         <v>11</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H91" s="7">
         <v>0</v>
@@ -6390,7 +6399,7 @@
         <v>11</v>
       </c>
       <c r="L91" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M91" s="7">
         <v>0</v>
@@ -6426,7 +6435,7 @@
         <v>11</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H92" s="7">
         <v>0</v>
@@ -6441,7 +6450,7 @@
         <v>11</v>
       </c>
       <c r="L92" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M92" s="7">
         <v>0</v>
@@ -6477,7 +6486,7 @@
         <v>11</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H93" s="7">
         <v>0</v>
@@ -6492,7 +6501,7 @@
         <v>11</v>
       </c>
       <c r="L93" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M93" s="7">
         <v>0</v>
@@ -6528,7 +6537,7 @@
         <v>11</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H94" s="7">
         <v>0</v>
@@ -6543,7 +6552,7 @@
         <v>11</v>
       </c>
       <c r="L94" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M94" s="7">
         <v>0</v>
@@ -6573,13 +6582,13 @@
         <v>3521</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="H95" s="7">
         <v>0</v>
@@ -6594,7 +6603,7 @@
         <v>11</v>
       </c>
       <c r="L95" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M95" s="7">
         <v>3</v>
@@ -6603,13 +6612,13 @@
         <v>3521</v>
       </c>
       <c r="O95" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="P95" s="7" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="Q95" s="7" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
@@ -6624,13 +6633,13 @@
         <v>22998</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="H96" s="7">
         <v>6</v>
@@ -6639,13 +6648,13 @@
         <v>5890</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="K96" s="7" t="s">
-        <v>354</v>
+        <v>305</v>
       </c>
       <c r="L96" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="M96" s="7">
         <v>29</v>
@@ -6654,13 +6663,13 @@
         <v>28887</v>
       </c>
       <c r="O96" s="7" t="s">
-        <v>356</v>
+        <v>248</v>
       </c>
       <c r="P96" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="Q96" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.3">
@@ -6675,13 +6684,13 @@
         <v>39187</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="H97" s="7">
         <v>21</v>
@@ -6690,13 +6699,13 @@
         <v>21192</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="K97" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="L97" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="M97" s="7">
         <v>58</v>
@@ -6705,13 +6714,13 @@
         <v>60379</v>
       </c>
       <c r="O97" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="P97" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="Q97" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
@@ -6726,13 +6735,13 @@
         <v>5722</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="H98" s="7">
         <v>3</v>
@@ -6741,13 +6750,13 @@
         <v>2995</v>
       </c>
       <c r="J98" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="K98" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="L98" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="M98" s="7">
         <v>9</v>
@@ -6756,13 +6765,13 @@
         <v>8717</v>
       </c>
       <c r="O98" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="P98" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="Q98" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
@@ -6777,13 +6786,13 @@
         <v>72348</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H99" s="7">
         <v>30</v>
@@ -6792,13 +6801,13 @@
         <v>30077</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K99" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L99" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M99" s="7">
         <v>100</v>
@@ -6807,13 +6816,13 @@
         <v>102425</v>
       </c>
       <c r="O99" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P99" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q99" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
@@ -6830,13 +6839,13 @@
         <v>1472</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="F100" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="H100" s="7">
         <v>0</v>
@@ -6851,7 +6860,7 @@
         <v>11</v>
       </c>
       <c r="L100" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="M100" s="7">
         <v>1</v>
@@ -6860,13 +6869,13 @@
         <v>1472</v>
       </c>
       <c r="O100" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="P100" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q100" s="7" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
@@ -6881,13 +6890,13 @@
         <v>1022</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="F101" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="H101" s="7">
         <v>0</v>
@@ -6902,7 +6911,7 @@
         <v>11</v>
       </c>
       <c r="L101" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="M101" s="7">
         <v>1</v>
@@ -6911,13 +6920,13 @@
         <v>1022</v>
       </c>
       <c r="O101" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="P101" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q101" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
@@ -6932,13 +6941,13 @@
         <v>15410</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>384</v>
+        <v>251</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="H102" s="7">
         <v>2</v>
@@ -6947,13 +6956,13 @@
         <v>2049</v>
       </c>
       <c r="J102" s="7" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="K102" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L102" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="M102" s="7">
         <v>16</v>
@@ -6962,13 +6971,13 @@
         <v>17459</v>
       </c>
       <c r="O102" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="P102" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="Q102" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
@@ -6983,13 +6992,13 @@
         <v>1237</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="F103" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>393</v>
+        <v>87</v>
       </c>
       <c r="H103" s="7">
         <v>1</v>
@@ -6998,13 +7007,13 @@
         <v>929</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="K103" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L103" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="M103" s="7">
         <v>2</v>
@@ -7013,13 +7022,13 @@
         <v>2166</v>
       </c>
       <c r="O103" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="P103" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q103" s="7" t="s">
-        <v>346</v>
+        <v>401</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.3">
@@ -7034,13 +7043,13 @@
         <v>6671</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>399</v>
+        <v>180</v>
       </c>
       <c r="H104" s="7">
         <v>1</v>
@@ -7049,13 +7058,13 @@
         <v>1536</v>
       </c>
       <c r="J104" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="K104" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L104" s="7" t="s">
-        <v>401</v>
+        <v>285</v>
       </c>
       <c r="M104" s="7">
         <v>7</v>
@@ -7064,13 +7073,13 @@
         <v>8207</v>
       </c>
       <c r="O104" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="P104" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q104" s="7" t="s">
-        <v>80</v>
+        <v>405</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.3">
@@ -7085,13 +7094,13 @@
         <v>11418</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="H105" s="7">
         <v>2</v>
@@ -7100,13 +7109,13 @@
         <v>1709</v>
       </c>
       <c r="J105" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="K105" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L105" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="M105" s="7">
         <v>13</v>
@@ -7115,13 +7124,13 @@
         <v>13127</v>
       </c>
       <c r="O105" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="P105" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="Q105" s="7" t="s">
-        <v>408</v>
+        <v>82</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.3">
@@ -7136,13 +7145,13 @@
         <v>10041</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H106" s="7">
         <v>2</v>
@@ -7151,13 +7160,13 @@
         <v>1783</v>
       </c>
       <c r="J106" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K106" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L106" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="M106" s="7">
         <v>10</v>
@@ -7166,13 +7175,13 @@
         <v>11824</v>
       </c>
       <c r="O106" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="P106" s="7" t="s">
-        <v>17</v>
+        <v>390</v>
       </c>
       <c r="Q106" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.3">
@@ -7187,13 +7196,13 @@
         <v>27439</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H107" s="7">
         <v>6</v>
@@ -7202,13 +7211,13 @@
         <v>5877</v>
       </c>
       <c r="J107" s="7" t="s">
-        <v>419</v>
+        <v>375</v>
       </c>
       <c r="K107" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="L107" s="7" t="s">
-        <v>101</v>
+        <v>421</v>
       </c>
       <c r="M107" s="7">
         <v>31</v>
@@ -7217,13 +7226,13 @@
         <v>33317</v>
       </c>
       <c r="O107" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="P107" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q107" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.3">
@@ -7238,13 +7247,13 @@
         <v>135827</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="H108" s="7">
         <v>33</v>
@@ -7253,13 +7262,13 @@
         <v>33401</v>
       </c>
       <c r="J108" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="K108" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L108" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M108" s="7">
         <v>163</v>
@@ -7268,13 +7277,13 @@
         <v>169228</v>
       </c>
       <c r="O108" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="P108" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Q108" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.3">
@@ -7289,13 +7298,13 @@
         <v>207511</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="H109" s="7">
         <v>81</v>
@@ -7304,13 +7313,13 @@
         <v>80647</v>
       </c>
       <c r="J109" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="K109" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L109" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M109" s="7">
         <v>278</v>
@@ -7319,13 +7328,13 @@
         <v>288158</v>
       </c>
       <c r="O109" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="P109" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="Q109" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.3">
@@ -7340,13 +7349,13 @@
         <v>52028</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>45</v>
+        <v>444</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="H110" s="7">
         <v>28</v>
@@ -7355,13 +7364,13 @@
         <v>29404</v>
       </c>
       <c r="J110" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="K110" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="L110" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="M110" s="7">
         <v>75</v>
@@ -7370,13 +7379,13 @@
         <v>81431</v>
       </c>
       <c r="O110" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="P110" s="7" t="s">
-        <v>447</v>
+        <v>163</v>
       </c>
       <c r="Q110" s="7" t="s">
-        <v>127</v>
+        <v>450</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.3">
@@ -7391,13 +7400,13 @@
         <v>470075</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H111" s="7">
         <v>156</v>
@@ -7406,13 +7415,13 @@
         <v>157336</v>
       </c>
       <c r="J111" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K111" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L111" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M111" s="7">
         <v>597</v>
@@ -7421,18 +7430,18 @@
         <v>627411</v>
       </c>
       <c r="O111" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P111" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q111" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34D2H-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P34D2H-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C148D02-9B8A-4094-ACEC-BC03237BD634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECDA5E75-E55E-4AE0-893C-3ED37F123E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8D761685-4775-4726-B8B7-B2B7EC27A062}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F6460BF8-2A71-4789-9986-235A2413DC9C}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="452">
-  <si>
-    <t>Población según el número de horas por día durante las que  realizó actividades físicas intensas en 2015 (Tasa respuesta: 9,09%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="446">
+  <si>
+    <t>Población según el número de horas por día durante las que  realizó actividades físicas intensas en 2016 (Tasa respuesta: 9,09%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -86,82 +86,85 @@
     <t>1,16%</t>
   </si>
   <si>
-    <t>5,81%</t>
+    <t>5,88%</t>
   </si>
   <si>
     <t>0,93%</t>
   </si>
   <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
     <t>4,96%</t>
   </si>
   <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
+    <t>22,54%</t>
   </si>
   <si>
     <t>8,34%</t>
   </si>
   <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
   </si>
   <si>
     <t>5,01%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
   </si>
   <si>
     <t>4,03%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
   </si>
   <si>
     <t>7,12%</t>
   </si>
   <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
   </si>
   <si>
     <t>7,96%</t>
   </si>
   <si>
-    <t>26,69%</t>
+    <t>25,77%</t>
   </si>
   <si>
     <t>7,28%</t>
   </si>
   <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
   </si>
   <si>
     <t>3,2%</t>
   </si>
   <si>
-    <t>10,62%</t>
+    <t>10,42%</t>
   </si>
   <si>
     <t>2,57%</t>
@@ -173,1222 +176,1201 @@
     <t>8,41%</t>
   </si>
   <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
+    <t>16,03%</t>
   </si>
   <si>
     <t>6,76%</t>
   </si>
   <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
   </si>
   <si>
     <t>28,58%</t>
   </si>
   <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
   </si>
   <si>
     <t>27,39%</t>
   </si>
   <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
   </si>
   <si>
     <t>28,34%</t>
   </si>
   <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
   </si>
   <si>
     <t>29,46%</t>
   </si>
   <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
   </si>
   <si>
     <t>33,12%</t>
   </si>
   <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
   </si>
   <si>
     <t>30,17%</t>
   </si>
   <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
   </si>
   <si>
     <t>7,91%</t>
   </si>
   <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
   </si>
   <si>
     <t>26,58%</t>
   </si>
   <si>
-    <t>9,28%</t>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
   </si>
   <si>
     <t>47,69%</t>
   </si>
   <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
   </si>
   <si>
     <t>2,92%</t>
   </si>
   <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
   </si>
   <si>
     <t>10,47%</t>
   </si>
   <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
+    <t>15,85%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1803,7 +1785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5AE31FD-3CA6-4FC0-9BBD-A33FC31D5F02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0479A5A7-9800-46ED-8CE5-1E9ACA519845}">
   <dimension ref="A1:Q112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2044,13 +2026,13 @@
         <v>1064</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>8</v>
@@ -2059,13 +2041,13 @@
         <v>9169</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2131,13 +2113,13 @@
         <v>4432</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2161,13 +2143,13 @@
         <v>4432</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2182,13 +2164,13 @@
         <v>6296</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -2197,13 +2179,13 @@
         <v>1709</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -2212,13 +2194,13 @@
         <v>8005</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2233,13 +2215,13 @@
         <v>2830</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2263,13 +2245,13 @@
         <v>2830</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2284,10 +2266,10 @@
         <v>7435</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>46</v>
@@ -3314,7 +3296,7 @@
         <v>10</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -3338,13 +3320,13 @@
         <v>1237</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,13 +3458,13 @@
         <v>884</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -3491,13 +3473,13 @@
         <v>884</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3512,13 +3494,13 @@
         <v>865</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -3542,13 +3524,13 @@
         <v>865</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3563,13 +3545,13 @@
         <v>11997</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -3578,13 +3560,13 @@
         <v>997</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M36" s="7">
         <v>14</v>
@@ -3593,13 +3575,13 @@
         <v>12994</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3614,13 +3596,13 @@
         <v>10459</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H37" s="7">
         <v>4</v>
@@ -3629,13 +3611,13 @@
         <v>3761</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M37" s="7">
         <v>15</v>
@@ -3644,13 +3626,13 @@
         <v>14219</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3665,13 +3647,13 @@
         <v>1931</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -3680,13 +3662,13 @@
         <v>1769</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M38" s="7">
         <v>4</v>
@@ -3695,10 +3677,10 @@
         <v>3700</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>165</v>
@@ -3790,22 +3772,22 @@
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M40" s="7">
+        <v>0</v>
+      </c>
+      <c r="N40" s="7">
+        <v>0</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="M40" s="7">
-        <v>0</v>
-      </c>
-      <c r="N40" s="7">
-        <v>0</v>
-      </c>
-      <c r="O40" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3841,22 +3823,22 @@
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M41" s="7">
+        <v>0</v>
+      </c>
+      <c r="N41" s="7">
+        <v>0</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="M41" s="7">
-        <v>0</v>
-      </c>
-      <c r="N41" s="7">
-        <v>0</v>
-      </c>
-      <c r="O41" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3892,22 +3874,22 @@
         <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M42" s="7">
+        <v>0</v>
+      </c>
+      <c r="N42" s="7">
+        <v>0</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="M42" s="7">
-        <v>0</v>
-      </c>
-      <c r="N42" s="7">
-        <v>0</v>
-      </c>
-      <c r="O42" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3943,22 +3925,22 @@
         <v>11</v>
       </c>
       <c r="L43" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M43" s="7">
+        <v>0</v>
+      </c>
+      <c r="N43" s="7">
+        <v>0</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="M43" s="7">
-        <v>0</v>
-      </c>
-      <c r="N43" s="7">
-        <v>0</v>
-      </c>
-      <c r="O43" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3973,13 +3955,13 @@
         <v>973</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
@@ -3988,13 +3970,13 @@
         <v>1536</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M44" s="7">
         <v>2</v>
@@ -4003,13 +3985,13 @@
         <v>2509</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>174</v>
+        <v>48</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4024,13 +4006,13 @@
         <v>1948</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -4045,7 +4027,7 @@
         <v>11</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="M45" s="7">
         <v>2</v>
@@ -4054,13 +4036,13 @@
         <v>1948</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4090,13 +4072,13 @@
         <v>899</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M46" s="7">
         <v>1</v>
@@ -4105,13 +4087,13 @@
         <v>899</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,10 +4111,10 @@
         <v>86</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H47" s="7">
         <v>2</v>
@@ -4141,13 +4123,13 @@
         <v>1898</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M47" s="7">
         <v>5</v>
@@ -4156,13 +4138,13 @@
         <v>4609</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4177,13 +4159,13 @@
         <v>17226</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H48" s="7">
         <v>4</v>
@@ -4192,13 +4174,13 @@
         <v>3734</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>195</v>
+        <v>41</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M48" s="7">
         <v>21</v>
@@ -4207,13 +4189,13 @@
         <v>20960</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4228,13 +4210,13 @@
         <v>21427</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H49" s="7">
         <v>14</v>
@@ -4243,13 +4225,13 @@
         <v>14368</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M49" s="7">
         <v>33</v>
@@ -4258,13 +4240,13 @@
         <v>35794</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4279,13 +4261,13 @@
         <v>19552</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H50" s="7">
         <v>8</v>
@@ -4294,13 +4276,13 @@
         <v>8036</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M50" s="7">
         <v>25</v>
@@ -4309,13 +4291,13 @@
         <v>27588</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,7 +4353,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B52" s="5">
         <v>10</v>
@@ -4404,7 +4386,7 @@
         <v>11</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M52" s="7">
         <v>0</v>
@@ -4419,7 +4401,7 @@
         <v>11</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4455,7 +4437,7 @@
         <v>11</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M53" s="7">
         <v>0</v>
@@ -4470,7 +4452,7 @@
         <v>11</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4506,7 +4488,7 @@
         <v>11</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M54" s="7">
         <v>0</v>
@@ -4521,7 +4503,7 @@
         <v>11</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,7 +4539,7 @@
         <v>11</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M55" s="7">
         <v>0</v>
@@ -4572,7 +4554,7 @@
         <v>11</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,13 +4569,13 @@
         <v>1267</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -4608,7 +4590,7 @@
         <v>11</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M56" s="7">
         <v>1</v>
@@ -4617,13 +4599,13 @@
         <v>1267</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P56" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4659,7 +4641,7 @@
         <v>11</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M57" s="7">
         <v>0</v>
@@ -4674,7 +4656,7 @@
         <v>11</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4689,13 +4671,13 @@
         <v>957</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
@@ -4710,7 +4692,7 @@
         <v>11</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M58" s="7">
         <v>1</v>
@@ -4719,13 +4701,13 @@
         <v>957</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P58" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>227</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4740,13 +4722,13 @@
         <v>1948</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
@@ -4761,7 +4743,7 @@
         <v>11</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M59" s="7">
         <v>2</v>
@@ -4770,13 +4752,13 @@
         <v>1948</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P59" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4791,13 +4773,13 @@
         <v>11040</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H60" s="7">
         <v>4</v>
@@ -4806,13 +4788,13 @@
         <v>3753</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>236</v>
+        <v>42</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="M60" s="7">
         <v>15</v>
@@ -4821,13 +4803,13 @@
         <v>14793</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4842,13 +4824,13 @@
         <v>10228</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H61" s="7">
         <v>6</v>
@@ -4857,13 +4839,13 @@
         <v>5542</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M61" s="7">
         <v>17</v>
@@ -4872,13 +4854,13 @@
         <v>15770</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4893,13 +4875,13 @@
         <v>2906</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -4914,7 +4896,7 @@
         <v>11</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M62" s="7">
         <v>3</v>
@@ -4923,13 +4905,13 @@
         <v>2906</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4985,7 +4967,7 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B64" s="5">
         <v>10</v>
@@ -5003,7 +4985,7 @@
         <v>11</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
@@ -5018,7 +5000,7 @@
         <v>11</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="M64" s="7">
         <v>0</v>
@@ -5033,7 +5015,7 @@
         <v>11</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -5054,7 +5036,7 @@
         <v>11</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
@@ -5069,7 +5051,7 @@
         <v>11</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="M65" s="7">
         <v>0</v>
@@ -5084,7 +5066,7 @@
         <v>11</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5105,7 +5087,7 @@
         <v>11</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H66" s="7">
         <v>0</v>
@@ -5120,7 +5102,7 @@
         <v>11</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="M66" s="7">
         <v>0</v>
@@ -5135,7 +5117,7 @@
         <v>11</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -5156,7 +5138,7 @@
         <v>11</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H67" s="7">
         <v>0</v>
@@ -5171,7 +5153,7 @@
         <v>11</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="M67" s="7">
         <v>0</v>
@@ -5186,7 +5168,7 @@
         <v>11</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -5207,7 +5189,7 @@
         <v>11</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H68" s="7">
         <v>0</v>
@@ -5222,7 +5204,7 @@
         <v>11</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="M68" s="7">
         <v>0</v>
@@ -5237,7 +5219,7 @@
         <v>11</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -5258,7 +5240,7 @@
         <v>11</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H69" s="7">
         <v>0</v>
@@ -5273,7 +5255,7 @@
         <v>11</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="M69" s="7">
         <v>0</v>
@@ -5288,7 +5270,7 @@
         <v>11</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -5303,13 +5285,13 @@
         <v>961</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>164</v>
+        <v>255</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
@@ -5324,7 +5306,7 @@
         <v>11</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="M70" s="7">
         <v>1</v>
@@ -5333,13 +5315,13 @@
         <v>961</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P70" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,7 +5342,7 @@
         <v>11</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H71" s="7">
         <v>0</v>
@@ -5375,7 +5357,7 @@
         <v>11</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="M71" s="7">
         <v>0</v>
@@ -5390,7 +5372,7 @@
         <v>11</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,13 +5387,13 @@
         <v>8324</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H72" s="7">
         <v>5</v>
@@ -5420,13 +5402,13 @@
         <v>4661</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M72" s="7">
         <v>13</v>
@@ -5435,13 +5417,13 @@
         <v>12985</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5456,13 +5438,13 @@
         <v>24272</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H73" s="7">
         <v>5</v>
@@ -5471,13 +5453,13 @@
         <v>4599</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="M73" s="7">
         <v>30</v>
@@ -5486,13 +5468,13 @@
         <v>28870</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5507,13 +5489,13 @@
         <v>901</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H74" s="7">
         <v>1</v>
@@ -5522,13 +5504,13 @@
         <v>1025</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K74" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="M74" s="7">
         <v>2</v>
@@ -5537,13 +5519,13 @@
         <v>1926</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="P74" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5599,7 +5581,7 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B76" s="5">
         <v>10</v>
@@ -5611,13 +5593,13 @@
         <v>1472</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H76" s="7">
         <v>0</v>
@@ -5632,7 +5614,7 @@
         <v>11</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M76" s="7">
         <v>1</v>
@@ -5641,13 +5623,13 @@
         <v>1472</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="P76" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -5668,7 +5650,7 @@
         <v>11</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H77" s="7">
         <v>0</v>
@@ -5683,7 +5665,7 @@
         <v>11</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M77" s="7">
         <v>0</v>
@@ -5698,7 +5680,7 @@
         <v>11</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>294</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -5713,13 +5695,13 @@
         <v>3253</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="H78" s="7">
         <v>0</v>
@@ -5734,7 +5716,7 @@
         <v>11</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M78" s="7">
         <v>3</v>
@@ -5743,13 +5725,13 @@
         <v>3253</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="P78" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -5770,7 +5752,7 @@
         <v>11</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H79" s="7">
         <v>1</v>
@@ -5779,13 +5761,13 @@
         <v>929</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K79" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="M79" s="7">
         <v>1</v>
@@ -5794,13 +5776,13 @@
         <v>929</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="P79" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -5821,7 +5803,7 @@
         <v>11</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H80" s="7">
         <v>0</v>
@@ -5836,7 +5818,7 @@
         <v>11</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M80" s="7">
         <v>0</v>
@@ -5851,7 +5833,7 @@
         <v>11</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>294</v>
+        <v>115</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -5866,13 +5848,13 @@
         <v>3174</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H81" s="7">
         <v>0</v>
@@ -5887,7 +5869,7 @@
         <v>11</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M81" s="7">
         <v>3</v>
@@ -5896,13 +5878,13 @@
         <v>3174</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="P81" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -5917,13 +5899,13 @@
         <v>5294</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="H82" s="7">
         <v>0</v>
@@ -5938,7 +5920,7 @@
         <v>11</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M82" s="7">
         <v>4</v>
@@ -5947,13 +5929,13 @@
         <v>5294</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="P82" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -5968,13 +5950,13 @@
         <v>4368</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>314</v>
+        <v>95</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>316</v>
+        <v>54</v>
       </c>
       <c r="H83" s="7">
         <v>3</v>
@@ -5986,10 +5968,10 @@
         <v>100</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>317</v>
+        <v>137</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="M83" s="7">
         <v>7</v>
@@ -5998,13 +5980,13 @@
         <v>7351</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="P83" s="7" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
@@ -6019,13 +6001,13 @@
         <v>29013</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="H84" s="7">
         <v>7</v>
@@ -6034,13 +6016,13 @@
         <v>7398</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="K84" s="7" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="M84" s="7">
         <v>33</v>
@@ -6049,13 +6031,13 @@
         <v>36410</v>
       </c>
       <c r="O84" s="7" t="s">
-        <v>328</v>
+        <v>204</v>
       </c>
       <c r="P84" s="7" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
@@ -6070,13 +6052,13 @@
         <v>36585</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H85" s="7">
         <v>17</v>
@@ -6085,13 +6067,13 @@
         <v>17196</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="K85" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="M85" s="7">
         <v>50</v>
@@ -6100,13 +6082,13 @@
         <v>53780</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="P85" s="7" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
@@ -6121,13 +6103,13 @@
         <v>10796</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>340</v>
+        <v>88</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>341</v>
+        <v>16</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="H86" s="7">
         <v>5</v>
@@ -6136,13 +6118,13 @@
         <v>6896</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="K86" s="7" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>150</v>
+        <v>333</v>
       </c>
       <c r="M86" s="7">
         <v>14</v>
@@ -6151,13 +6133,13 @@
         <v>17692</v>
       </c>
       <c r="O86" s="7" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="P86" s="7" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
@@ -6213,7 +6195,7 @@
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="B88" s="5">
         <v>10</v>
@@ -6246,7 +6228,7 @@
         <v>11</v>
       </c>
       <c r="L88" s="7" t="s">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="M88" s="7">
         <v>0</v>
@@ -6297,7 +6279,7 @@
         <v>11</v>
       </c>
       <c r="L89" s="7" t="s">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="M89" s="7">
         <v>0</v>
@@ -6327,13 +6309,13 @@
         <v>921</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="F90" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="H90" s="7">
         <v>0</v>
@@ -6348,7 +6330,7 @@
         <v>11</v>
       </c>
       <c r="L90" s="7" t="s">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="M90" s="7">
         <v>1</v>
@@ -6357,13 +6339,13 @@
         <v>921</v>
       </c>
       <c r="O90" s="7" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="P90" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q90" s="7" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
@@ -6399,7 +6381,7 @@
         <v>11</v>
       </c>
       <c r="L91" s="7" t="s">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="M91" s="7">
         <v>0</v>
@@ -6450,7 +6432,7 @@
         <v>11</v>
       </c>
       <c r="L92" s="7" t="s">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="M92" s="7">
         <v>0</v>
@@ -6501,7 +6483,7 @@
         <v>11</v>
       </c>
       <c r="L93" s="7" t="s">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="M93" s="7">
         <v>0</v>
@@ -6552,7 +6534,7 @@
         <v>11</v>
       </c>
       <c r="L94" s="7" t="s">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="M94" s="7">
         <v>0</v>
@@ -6582,13 +6564,13 @@
         <v>3521</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="H95" s="7">
         <v>0</v>
@@ -6603,7 +6585,7 @@
         <v>11</v>
       </c>
       <c r="L95" s="7" t="s">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="M95" s="7">
         <v>3</v>
@@ -6612,13 +6594,13 @@
         <v>3521</v>
       </c>
       <c r="O95" s="7" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="P95" s="7" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="Q95" s="7" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
@@ -6633,13 +6615,13 @@
         <v>22998</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="H96" s="7">
         <v>6</v>
@@ -6648,13 +6630,13 @@
         <v>5890</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="K96" s="7" t="s">
-        <v>305</v>
+        <v>352</v>
       </c>
       <c r="L96" s="7" t="s">
-        <v>363</v>
+        <v>58</v>
       </c>
       <c r="M96" s="7">
         <v>29</v>
@@ -6663,13 +6645,13 @@
         <v>28887</v>
       </c>
       <c r="O96" s="7" t="s">
-        <v>248</v>
+        <v>353</v>
       </c>
       <c r="P96" s="7" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="Q96" s="7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.3">
@@ -6684,13 +6666,13 @@
         <v>39187</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="H97" s="7">
         <v>21</v>
@@ -6699,13 +6681,13 @@
         <v>21192</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="K97" s="7" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="L97" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="M97" s="7">
         <v>58</v>
@@ -6714,13 +6696,13 @@
         <v>60379</v>
       </c>
       <c r="O97" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="P97" s="7" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="Q97" s="7" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
@@ -6738,10 +6720,10 @@
         <v>68</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="H98" s="7">
         <v>3</v>
@@ -6750,13 +6732,13 @@
         <v>2995</v>
       </c>
       <c r="J98" s="7" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="K98" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="L98" s="7" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="M98" s="7">
         <v>9</v>
@@ -6765,13 +6747,13 @@
         <v>8717</v>
       </c>
       <c r="O98" s="7" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="P98" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="Q98" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
@@ -6839,13 +6821,13 @@
         <v>1472</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="F100" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="H100" s="7">
         <v>0</v>
@@ -6860,7 +6842,7 @@
         <v>11</v>
       </c>
       <c r="L100" s="7" t="s">
-        <v>385</v>
+        <v>182</v>
       </c>
       <c r="M100" s="7">
         <v>1</v>
@@ -6869,13 +6851,13 @@
         <v>1472</v>
       </c>
       <c r="O100" s="7" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="P100" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q100" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
@@ -6890,13 +6872,13 @@
         <v>1022</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="F101" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>388</v>
+        <v>291</v>
       </c>
       <c r="H101" s="7">
         <v>0</v>
@@ -6911,7 +6893,7 @@
         <v>11</v>
       </c>
       <c r="L101" s="7" t="s">
-        <v>385</v>
+        <v>182</v>
       </c>
       <c r="M101" s="7">
         <v>1</v>
@@ -6920,13 +6902,13 @@
         <v>1022</v>
       </c>
       <c r="O101" s="7" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="P101" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q101" s="7" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
@@ -6941,13 +6923,13 @@
         <v>15410</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>251</v>
+        <v>379</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="H102" s="7">
         <v>2</v>
@@ -6956,13 +6938,13 @@
         <v>2049</v>
       </c>
       <c r="J102" s="7" t="s">
-        <v>354</v>
+        <v>382</v>
       </c>
       <c r="K102" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L102" s="7" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="M102" s="7">
         <v>16</v>
@@ -6971,13 +6953,13 @@
         <v>17459</v>
       </c>
       <c r="O102" s="7" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="P102" s="7" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="Q102" s="7" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
@@ -6992,7 +6974,7 @@
         <v>1237</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="F103" s="7" t="s">
         <v>10</v>
@@ -7007,13 +6989,13 @@
         <v>929</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="K103" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L103" s="7" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="M103" s="7">
         <v>2</v>
@@ -7022,13 +7004,13 @@
         <v>2166</v>
       </c>
       <c r="O103" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="P103" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q103" s="7" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.3">
@@ -7043,13 +7025,13 @@
         <v>6671</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>180</v>
+        <v>394</v>
       </c>
       <c r="H104" s="7">
         <v>1</v>
@@ -7058,13 +7040,13 @@
         <v>1536</v>
       </c>
       <c r="J104" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="K104" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L104" s="7" t="s">
-        <v>285</v>
+        <v>396</v>
       </c>
       <c r="M104" s="7">
         <v>7</v>
@@ -7073,13 +7055,13 @@
         <v>8207</v>
       </c>
       <c r="O104" s="7" t="s">
-        <v>388</v>
+        <v>87</v>
       </c>
       <c r="P104" s="7" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="Q104" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.3">
@@ -7094,13 +7076,13 @@
         <v>11418</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="H105" s="7">
         <v>2</v>
@@ -7109,13 +7091,13 @@
         <v>1709</v>
       </c>
       <c r="J105" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K105" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L105" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="M105" s="7">
         <v>13</v>
@@ -7124,13 +7106,13 @@
         <v>13127</v>
       </c>
       <c r="O105" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="P105" s="7" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="Q105" s="7" t="s">
-        <v>82</v>
+        <v>405</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.3">
@@ -7145,13 +7127,13 @@
         <v>10041</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="H106" s="7">
         <v>2</v>
@@ -7160,13 +7142,13 @@
         <v>1783</v>
       </c>
       <c r="J106" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="K106" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L106" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="M106" s="7">
         <v>10</v>
@@ -7175,13 +7157,13 @@
         <v>11824</v>
       </c>
       <c r="O106" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="P106" s="7" t="s">
-        <v>390</v>
+        <v>346</v>
       </c>
       <c r="Q106" s="7" t="s">
-        <v>417</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.3">
@@ -7196,13 +7178,13 @@
         <v>27439</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="H107" s="7">
         <v>6</v>
@@ -7211,13 +7193,13 @@
         <v>5877</v>
       </c>
       <c r="J107" s="7" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="K107" s="7" t="s">
-        <v>349</v>
+        <v>415</v>
       </c>
       <c r="L107" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="M107" s="7">
         <v>31</v>
@@ -7226,13 +7208,13 @@
         <v>33317</v>
       </c>
       <c r="O107" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="P107" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="Q107" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.3">
@@ -7247,13 +7229,13 @@
         <v>135827</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="H108" s="7">
         <v>33</v>
@@ -7262,13 +7244,13 @@
         <v>33401</v>
       </c>
       <c r="J108" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="K108" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="L108" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="M108" s="7">
         <v>163</v>
@@ -7277,13 +7259,13 @@
         <v>169228</v>
       </c>
       <c r="O108" s="7" t="s">
-        <v>431</v>
+        <v>247</v>
       </c>
       <c r="P108" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="Q108" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.3">
@@ -7298,13 +7280,13 @@
         <v>207511</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>435</v>
+        <v>261</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="H109" s="7">
         <v>81</v>
@@ -7313,13 +7295,13 @@
         <v>80647</v>
       </c>
       <c r="J109" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="K109" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="L109" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="M109" s="7">
         <v>278</v>
@@ -7328,13 +7310,13 @@
         <v>288158</v>
       </c>
       <c r="O109" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="P109" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="Q109" s="7" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.3">
@@ -7349,13 +7331,13 @@
         <v>52028</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="H110" s="7">
         <v>28</v>
@@ -7364,13 +7346,13 @@
         <v>29404</v>
       </c>
       <c r="J110" s="7" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="K110" s="7" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="L110" s="7" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="M110" s="7">
         <v>75</v>
@@ -7379,13 +7361,13 @@
         <v>81431</v>
       </c>
       <c r="O110" s="7" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="P110" s="7" t="s">
-        <v>163</v>
+        <v>443</v>
       </c>
       <c r="Q110" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.3">
@@ -7441,7 +7423,7 @@
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34D2H-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P34D2H-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECDA5E75-E55E-4AE0-893C-3ED37F123E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{110B561F-08ED-4F9C-BE02-407FF8FC0FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F6460BF8-2A71-4789-9986-235A2413DC9C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B116ED7A-2186-4CED-8FB8-FC261327999E}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="446">
-  <si>
-    <t>Población según el número de horas por día durante las que  realizó actividades físicas intensas en 2016 (Tasa respuesta: 9,09%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="334">
+  <si>
+    <t>Población según el número de horas por día durante las que  realizó actividades físicas intensas en 2016 (Tasa respuesta: 99,54%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,1303 +74,967 @@
     <t>0%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,83%</t>
   </si>
   <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
   </si>
   <si>
     <t>2,57%</t>
   </si>
   <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
   </si>
   <si>
     <t>6,15%</t>
   </si>
   <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1785,7 +1449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0479A5A7-9800-46ED-8CE5-1E9ACA519845}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4067E85-45BD-41A0-AB09-6BAA90CDD989}">
   <dimension ref="A1:Q112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2044,10 +1708,10 @@
         <v>24</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2113,13 +1777,13 @@
         <v>4432</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2143,13 +1807,13 @@
         <v>4432</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2161,16 +1825,16 @@
         <v>6</v>
       </c>
       <c r="D9" s="7">
-        <v>6296</v>
+        <v>6295</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -2179,13 +1843,13 @@
         <v>1709</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -2194,13 +1858,13 @@
         <v>8005</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2215,13 +1879,13 @@
         <v>2830</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2245,13 +1909,13 @@
         <v>2830</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2266,10 +1930,10 @@
         <v>7435</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>46</v>
@@ -2413,10 +2077,10 @@
         <v>0</v>
       </c>
       <c r="C14" s="7">
-        <v>6</v>
+        <v>191</v>
       </c>
       <c r="D14" s="7">
-        <v>6997</v>
+        <v>209835</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>68</v>
@@ -2428,10 +2092,10 @@
         <v>70</v>
       </c>
       <c r="H14" s="7">
-        <v>6</v>
+        <v>259</v>
       </c>
       <c r="I14" s="7">
-        <v>5709</v>
+        <v>268718</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>71</v>
@@ -2443,10 +2107,10 @@
         <v>73</v>
       </c>
       <c r="M14" s="7">
-        <v>12</v>
+        <v>450</v>
       </c>
       <c r="N14" s="7">
-        <v>12706</v>
+        <v>478554</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>74</v>
@@ -2464,10 +2128,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="D15" s="7">
-        <v>88440</v>
+        <v>291278</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>77</v>
@@ -2479,10 +2143,10 @@
         <v>77</v>
       </c>
       <c r="H15" s="7">
-        <v>21</v>
+        <v>274</v>
       </c>
       <c r="I15" s="7">
-        <v>21475</v>
+        <v>284484</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>77</v>
@@ -2494,10 +2158,10 @@
         <v>77</v>
       </c>
       <c r="M15" s="7">
-        <v>100</v>
+        <v>538</v>
       </c>
       <c r="N15" s="7">
-        <v>109915</v>
+        <v>575763</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>77</v>
@@ -2544,22 +2208,22 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,22 +2259,22 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2625,13 +2289,13 @@
         <v>2168</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -2640,13 +2304,13 @@
         <v>985</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -2655,13 +2319,13 @@
         <v>3153</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2697,22 +2361,22 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2748,22 +2412,22 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2799,22 +2463,22 @@
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M21" s="7">
+        <v>0</v>
+      </c>
+      <c r="N21" s="7">
+        <v>0</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="M21" s="7">
-        <v>0</v>
-      </c>
-      <c r="N21" s="7">
-        <v>0</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2850,22 +2514,22 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7">
-        <v>0</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2880,13 +2544,13 @@
         <v>6591</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -2895,13 +2559,13 @@
         <v>996</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M23" s="7">
         <v>7</v>
@@ -2910,13 +2574,13 @@
         <v>7587</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2931,13 +2595,13 @@
         <v>9956</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -2946,13 +2610,13 @@
         <v>1089</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="M24" s="7">
         <v>10</v>
@@ -2961,13 +2625,13 @@
         <v>11045</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2982,13 +2646,13 @@
         <v>39303</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -2997,13 +2661,13 @@
         <v>6878</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="M25" s="7">
         <v>44</v>
@@ -3012,13 +2676,13 @@
         <v>46181</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3027,49 +2691,49 @@
         <v>0</v>
       </c>
       <c r="C26" s="7">
-        <v>3</v>
+        <v>421</v>
       </c>
       <c r="D26" s="7">
-        <v>3223</v>
+        <v>444557</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" s="7">
+        <v>471</v>
+      </c>
+      <c r="I26" s="7">
+        <v>510187</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M26" s="7">
+        <v>892</v>
+      </c>
+      <c r="N26" s="7">
+        <v>954744</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H26" s="7">
-        <v>3</v>
-      </c>
-      <c r="I26" s="7">
-        <v>2974</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M26" s="7">
-        <v>6</v>
-      </c>
-      <c r="N26" s="7">
-        <v>6196</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3078,10 +2742,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>57</v>
+        <v>475</v>
       </c>
       <c r="D27" s="7">
-        <v>61241</v>
+        <v>502575</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>77</v>
@@ -3093,10 +2757,10 @@
         <v>77</v>
       </c>
       <c r="H27" s="7">
-        <v>13</v>
+        <v>481</v>
       </c>
       <c r="I27" s="7">
-        <v>12921</v>
+        <v>520135</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>77</v>
@@ -3108,10 +2772,10 @@
         <v>77</v>
       </c>
       <c r="M27" s="7">
-        <v>70</v>
+        <v>956</v>
       </c>
       <c r="N27" s="7">
-        <v>74162</v>
+        <v>1022710</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>77</v>
@@ -3125,7 +2789,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B28" s="5">
         <v>10</v>
@@ -3143,7 +2807,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>124</v>
+        <v>38</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3158,7 +2822,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3173,7 +2837,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3194,7 +2858,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>124</v>
+        <v>38</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -3209,7 +2873,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -3224,7 +2888,7 @@
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,13 +2903,13 @@
         <v>964</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -3260,7 +2924,7 @@
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -3269,13 +2933,13 @@
         <v>964</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3290,13 +2954,13 @@
         <v>1237</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -3311,7 +2975,7 @@
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -3320,13 +2984,13 @@
         <v>1237</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3347,7 +3011,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>124</v>
+        <v>38</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3362,7 +3026,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3377,7 +3041,7 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3398,7 +3062,7 @@
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>124</v>
+        <v>38</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -3413,7 +3077,7 @@
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -3428,7 +3092,7 @@
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3449,7 +3113,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>124</v>
+        <v>38</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -3458,13 +3122,13 @@
         <v>884</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -3473,13 +3137,13 @@
         <v>884</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,13 +3158,13 @@
         <v>865</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -3515,7 +3179,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -3524,13 +3188,13 @@
         <v>865</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,13 +3209,13 @@
         <v>11997</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -3560,13 +3224,13 @@
         <v>997</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>147</v>
+        <v>31</v>
       </c>
       <c r="M36" s="7">
         <v>14</v>
@@ -3575,13 +3239,13 @@
         <v>12994</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3596,13 +3260,13 @@
         <v>10459</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="H37" s="7">
         <v>4</v>
@@ -3611,28 +3275,28 @@
         <v>3761</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="M37" s="7">
         <v>15</v>
       </c>
       <c r="N37" s="7">
-        <v>14219</v>
+        <v>14220</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>157</v>
+        <v>36</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3641,49 +3305,49 @@
         <v>0</v>
       </c>
       <c r="C38" s="7">
-        <v>2</v>
+        <v>308</v>
       </c>
       <c r="D38" s="7">
-        <v>1931</v>
+        <v>293043</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>161</v>
+        <v>71</v>
       </c>
       <c r="H38" s="7">
-        <v>2</v>
+        <v>326</v>
       </c>
       <c r="I38" s="7">
-        <v>1769</v>
+        <v>330667</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="M38" s="7">
-        <v>4</v>
+        <v>634</v>
       </c>
       <c r="N38" s="7">
-        <v>3700</v>
+        <v>623710</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3692,10 +3356,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>29</v>
+        <v>335</v>
       </c>
       <c r="D39" s="7">
-        <v>27452</v>
+        <v>318565</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>77</v>
@@ -3707,10 +3371,10 @@
         <v>77</v>
       </c>
       <c r="H39" s="7">
-        <v>8</v>
+        <v>332</v>
       </c>
       <c r="I39" s="7">
-        <v>7411</v>
+        <v>336309</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>77</v>
@@ -3722,10 +3386,10 @@
         <v>77</v>
       </c>
       <c r="M39" s="7">
-        <v>37</v>
+        <v>667</v>
       </c>
       <c r="N39" s="7">
-        <v>34863</v>
+        <v>654874</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>77</v>
@@ -3739,7 +3403,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="B40" s="5">
         <v>10</v>
@@ -3757,7 +3421,7 @@
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -3772,7 +3436,7 @@
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -3787,7 +3451,7 @@
         <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3808,7 +3472,7 @@
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -3823,7 +3487,7 @@
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -3838,7 +3502,7 @@
         <v>11</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3859,7 +3523,7 @@
         <v>11</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -3874,7 +3538,7 @@
         <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -3889,7 +3553,7 @@
         <v>11</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3910,7 +3574,7 @@
         <v>11</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -3925,7 +3589,7 @@
         <v>11</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -3940,7 +3604,7 @@
         <v>11</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,13 +3619,13 @@
         <v>973</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
@@ -3970,13 +3634,13 @@
         <v>1536</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="M44" s="7">
         <v>2</v>
@@ -3985,13 +3649,13 @@
         <v>2509</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>48</v>
+        <v>151</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>173</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,13 +3670,13 @@
         <v>1948</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>174</v>
+        <v>48</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -4027,7 +3691,7 @@
         <v>11</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="M45" s="7">
         <v>2</v>
@@ -4036,13 +3700,13 @@
         <v>1948</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>176</v>
+        <v>124</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4063,7 +3727,7 @@
         <v>11</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -4072,13 +3736,13 @@
         <v>899</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="M46" s="7">
         <v>1</v>
@@ -4087,13 +3751,13 @@
         <v>899</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>181</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4108,13 +3772,13 @@
         <v>2711</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="H47" s="7">
         <v>2</v>
@@ -4123,13 +3787,13 @@
         <v>1898</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>184</v>
+        <v>42</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>185</v>
+        <v>43</v>
       </c>
       <c r="M47" s="7">
         <v>5</v>
@@ -4138,13 +3802,13 @@
         <v>4609</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,13 +3823,13 @@
         <v>17226</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="H48" s="7">
         <v>4</v>
@@ -4174,13 +3838,13 @@
         <v>3734</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="M48" s="7">
         <v>21</v>
@@ -4189,13 +3853,13 @@
         <v>20960</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,13 +3874,13 @@
         <v>21427</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="H49" s="7">
         <v>14</v>
@@ -4225,13 +3889,13 @@
         <v>14368</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="M49" s="7">
         <v>33</v>
@@ -4240,13 +3904,13 @@
         <v>35794</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,49 +3919,49 @@
         <v>0</v>
       </c>
       <c r="C50" s="7">
-        <v>17</v>
+        <v>311</v>
       </c>
       <c r="D50" s="7">
-        <v>19552</v>
+        <v>324706</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="H50" s="7">
-        <v>8</v>
+        <v>336</v>
       </c>
       <c r="I50" s="7">
-        <v>8036</v>
+        <v>364849</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="M50" s="7">
-        <v>25</v>
+        <v>647</v>
       </c>
       <c r="N50" s="7">
-        <v>27588</v>
+        <v>689554</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,10 +3970,10 @@
         <v>3</v>
       </c>
       <c r="C51" s="7">
-        <v>59</v>
+        <v>353</v>
       </c>
       <c r="D51" s="7">
-        <v>63837</v>
+        <v>368991</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>77</v>
@@ -4321,10 +3985,10 @@
         <v>77</v>
       </c>
       <c r="H51" s="7">
-        <v>30</v>
+        <v>358</v>
       </c>
       <c r="I51" s="7">
-        <v>30470</v>
+        <v>387283</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>77</v>
@@ -4336,10 +4000,10 @@
         <v>77</v>
       </c>
       <c r="M51" s="7">
-        <v>89</v>
+        <v>711</v>
       </c>
       <c r="N51" s="7">
-        <v>94307</v>
+        <v>756274</v>
       </c>
       <c r="O51" s="7" t="s">
         <v>77</v>
@@ -4353,7 +4017,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="B52" s="5">
         <v>10</v>
@@ -4371,7 +4035,7 @@
         <v>11</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
@@ -4386,7 +4050,7 @@
         <v>11</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="M52" s="7">
         <v>0</v>
@@ -4401,7 +4065,7 @@
         <v>11</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4422,7 +4086,7 @@
         <v>11</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
@@ -4437,7 +4101,7 @@
         <v>11</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="M53" s="7">
         <v>0</v>
@@ -4452,7 +4116,7 @@
         <v>11</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,7 +4137,7 @@
         <v>11</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -4488,7 +4152,7 @@
         <v>11</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="M54" s="7">
         <v>0</v>
@@ -4503,7 +4167,7 @@
         <v>11</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4524,7 +4188,7 @@
         <v>11</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -4539,7 +4203,7 @@
         <v>11</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="M55" s="7">
         <v>0</v>
@@ -4554,7 +4218,7 @@
         <v>11</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,13 +4233,13 @@
         <v>1267</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>218</v>
+        <v>35</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -4590,7 +4254,7 @@
         <v>11</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="M56" s="7">
         <v>1</v>
@@ -4599,13 +4263,13 @@
         <v>1267</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="P56" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>221</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4626,7 +4290,7 @@
         <v>11</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="H57" s="7">
         <v>0</v>
@@ -4641,7 +4305,7 @@
         <v>11</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="M57" s="7">
         <v>0</v>
@@ -4656,7 +4320,7 @@
         <v>11</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4671,13 +4335,13 @@
         <v>957</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
@@ -4692,7 +4356,7 @@
         <v>11</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="M58" s="7">
         <v>1</v>
@@ -4701,13 +4365,13 @@
         <v>957</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="P58" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>88</v>
+        <v>192</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,13 +4386,13 @@
         <v>1948</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>224</v>
+        <v>86</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>225</v>
+        <v>161</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
@@ -4743,7 +4407,7 @@
         <v>11</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="M59" s="7">
         <v>2</v>
@@ -4752,13 +4416,13 @@
         <v>1948</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="P59" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>227</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4773,13 +4437,13 @@
         <v>11040</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="H60" s="7">
         <v>4</v>
@@ -4788,13 +4452,13 @@
         <v>3753</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>231</v>
+        <v>134</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>42</v>
+        <v>190</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="M60" s="7">
         <v>15</v>
@@ -4803,13 +4467,13 @@
         <v>14793</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>235</v>
+        <v>199</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4824,13 +4488,13 @@
         <v>10228</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="H61" s="7">
         <v>6</v>
@@ -4839,13 +4503,13 @@
         <v>5542</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>239</v>
+        <v>44</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="M61" s="7">
         <v>17</v>
@@ -4854,13 +4518,13 @@
         <v>15770</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>243</v>
+        <v>164</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>244</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4869,49 +4533,49 @@
         <v>0</v>
       </c>
       <c r="C62" s="7">
-        <v>3</v>
+        <v>186</v>
       </c>
       <c r="D62" s="7">
-        <v>2906</v>
+        <v>185781</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="H62" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="I62" s="7">
-        <v>0</v>
+        <v>208383</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>10</v>
+        <v>209</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="M62" s="7">
-        <v>3</v>
+        <v>398</v>
       </c>
       <c r="N62" s="7">
-        <v>2906</v>
+        <v>394165</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4920,10 +4584,10 @@
         <v>3</v>
       </c>
       <c r="C63" s="7">
-        <v>29</v>
+        <v>212</v>
       </c>
       <c r="D63" s="7">
-        <v>28346</v>
+        <v>211221</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>77</v>
@@ -4935,10 +4599,10 @@
         <v>77</v>
       </c>
       <c r="H63" s="7">
-        <v>10</v>
+        <v>222</v>
       </c>
       <c r="I63" s="7">
-        <v>9295</v>
+        <v>217678</v>
       </c>
       <c r="J63" s="7" t="s">
         <v>77</v>
@@ -4950,10 +4614,10 @@
         <v>77</v>
       </c>
       <c r="M63" s="7">
-        <v>39</v>
+        <v>434</v>
       </c>
       <c r="N63" s="7">
-        <v>37641</v>
+        <v>428899</v>
       </c>
       <c r="O63" s="7" t="s">
         <v>77</v>
@@ -4967,7 +4631,7 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="B64" s="5">
         <v>10</v>
@@ -4985,7 +4649,7 @@
         <v>11</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>252</v>
+        <v>91</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
@@ -5000,7 +4664,7 @@
         <v>11</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>253</v>
+        <v>120</v>
       </c>
       <c r="M64" s="7">
         <v>0</v>
@@ -5015,7 +4679,7 @@
         <v>11</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>254</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -5036,7 +4700,7 @@
         <v>11</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>252</v>
+        <v>91</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
@@ -5051,7 +4715,7 @@
         <v>11</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>253</v>
+        <v>120</v>
       </c>
       <c r="M65" s="7">
         <v>0</v>
@@ -5066,7 +4730,7 @@
         <v>11</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>254</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5087,7 +4751,7 @@
         <v>11</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>252</v>
+        <v>91</v>
       </c>
       <c r="H66" s="7">
         <v>0</v>
@@ -5102,7 +4766,7 @@
         <v>11</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>253</v>
+        <v>120</v>
       </c>
       <c r="M66" s="7">
         <v>0</v>
@@ -5117,7 +4781,7 @@
         <v>11</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>254</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -5138,7 +4802,7 @@
         <v>11</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>252</v>
+        <v>91</v>
       </c>
       <c r="H67" s="7">
         <v>0</v>
@@ -5153,7 +4817,7 @@
         <v>11</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>253</v>
+        <v>120</v>
       </c>
       <c r="M67" s="7">
         <v>0</v>
@@ -5168,7 +4832,7 @@
         <v>11</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>254</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -5189,7 +4853,7 @@
         <v>11</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>252</v>
+        <v>91</v>
       </c>
       <c r="H68" s="7">
         <v>0</v>
@@ -5204,7 +4868,7 @@
         <v>11</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>253</v>
+        <v>120</v>
       </c>
       <c r="M68" s="7">
         <v>0</v>
@@ -5219,7 +4883,7 @@
         <v>11</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>254</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -5240,7 +4904,7 @@
         <v>11</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>252</v>
+        <v>91</v>
       </c>
       <c r="H69" s="7">
         <v>0</v>
@@ -5255,7 +4919,7 @@
         <v>11</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>253</v>
+        <v>120</v>
       </c>
       <c r="M69" s="7">
         <v>0</v>
@@ -5270,7 +4934,7 @@
         <v>11</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>254</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -5285,13 +4949,13 @@
         <v>961</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>255</v>
+        <v>22</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
@@ -5306,7 +4970,7 @@
         <v>11</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>253</v>
+        <v>120</v>
       </c>
       <c r="M70" s="7">
         <v>1</v>
@@ -5315,13 +4979,13 @@
         <v>961</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>257</v>
+        <v>17</v>
       </c>
       <c r="P70" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>258</v>
+        <v>217</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5342,7 +5006,7 @@
         <v>11</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>252</v>
+        <v>91</v>
       </c>
       <c r="H71" s="7">
         <v>0</v>
@@ -5357,7 +5021,7 @@
         <v>11</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>253</v>
+        <v>120</v>
       </c>
       <c r="M71" s="7">
         <v>0</v>
@@ -5372,7 +5036,7 @@
         <v>11</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>254</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5387,28 +5051,28 @@
         <v>8324</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>259</v>
+        <v>218</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>260</v>
+        <v>219</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="H72" s="7">
         <v>5</v>
       </c>
       <c r="I72" s="7">
-        <v>4661</v>
+        <v>4660</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>262</v>
+        <v>221</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>263</v>
+        <v>129</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="M72" s="7">
         <v>13</v>
@@ -5417,13 +5081,13 @@
         <v>12985</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>265</v>
+        <v>223</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>267</v>
+        <v>225</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5438,13 +5102,13 @@
         <v>24272</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>268</v>
+        <v>226</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="H73" s="7">
         <v>5</v>
@@ -5453,28 +5117,28 @@
         <v>4599</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>272</v>
+        <v>230</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>273</v>
+        <v>95</v>
       </c>
       <c r="M73" s="7">
         <v>30</v>
       </c>
       <c r="N73" s="7">
-        <v>28870</v>
+        <v>28871</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>274</v>
+        <v>231</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>275</v>
+        <v>205</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>276</v>
+        <v>232</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5483,49 +5147,49 @@
         <v>0</v>
       </c>
       <c r="C74" s="7">
-        <v>1</v>
+        <v>225</v>
       </c>
       <c r="D74" s="7">
-        <v>901</v>
+        <v>229567</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>278</v>
+        <v>108</v>
       </c>
       <c r="H74" s="7">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="I74" s="7">
-        <v>1025</v>
+        <v>262739</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>279</v>
+        <v>73</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>280</v>
+        <v>236</v>
       </c>
       <c r="M74" s="7">
-        <v>2</v>
+        <v>477</v>
       </c>
       <c r="N74" s="7">
-        <v>1926</v>
+        <v>492305</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>281</v>
+        <v>237</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>282</v>
+        <v>239</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5534,10 +5198,10 @@
         <v>3</v>
       </c>
       <c r="C75" s="7">
-        <v>35</v>
+        <v>259</v>
       </c>
       <c r="D75" s="7">
-        <v>34458</v>
+        <v>263123</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>77</v>
@@ -5549,10 +5213,10 @@
         <v>77</v>
       </c>
       <c r="H75" s="7">
-        <v>11</v>
+        <v>262</v>
       </c>
       <c r="I75" s="7">
-        <v>10285</v>
+        <v>271998</v>
       </c>
       <c r="J75" s="7" t="s">
         <v>77</v>
@@ -5564,10 +5228,10 @@
         <v>77</v>
       </c>
       <c r="M75" s="7">
-        <v>46</v>
+        <v>521</v>
       </c>
       <c r="N75" s="7">
-        <v>44742</v>
+        <v>535121</v>
       </c>
       <c r="O75" s="7" t="s">
         <v>77</v>
@@ -5581,7 +5245,7 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>283</v>
+        <v>240</v>
       </c>
       <c r="B76" s="5">
         <v>10</v>
@@ -5593,13 +5257,13 @@
         <v>1472</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>284</v>
+        <v>154</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>285</v>
+        <v>86</v>
       </c>
       <c r="H76" s="7">
         <v>0</v>
@@ -5614,7 +5278,7 @@
         <v>11</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>286</v>
+        <v>117</v>
       </c>
       <c r="M76" s="7">
         <v>1</v>
@@ -5623,13 +5287,13 @@
         <v>1472</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="P76" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>288</v>
+        <v>188</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -5650,7 +5314,7 @@
         <v>11</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="H77" s="7">
         <v>0</v>
@@ -5665,7 +5329,7 @@
         <v>11</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>286</v>
+        <v>117</v>
       </c>
       <c r="M77" s="7">
         <v>0</v>
@@ -5680,7 +5344,7 @@
         <v>11</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>115</v>
+        <v>243</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -5695,13 +5359,13 @@
         <v>3253</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>290</v>
+        <v>98</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>291</v>
+        <v>243</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>292</v>
+        <v>152</v>
       </c>
       <c r="H78" s="7">
         <v>0</v>
@@ -5716,7 +5380,7 @@
         <v>11</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>286</v>
+        <v>117</v>
       </c>
       <c r="M78" s="7">
         <v>3</v>
@@ -5725,13 +5389,13 @@
         <v>3253</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>293</v>
+        <v>244</v>
       </c>
       <c r="P78" s="7" t="s">
-        <v>294</v>
+        <v>245</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>295</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -5752,7 +5416,7 @@
         <v>11</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="H79" s="7">
         <v>1</v>
@@ -5761,13 +5425,13 @@
         <v>929</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>277</v>
+        <v>125</v>
       </c>
       <c r="K79" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>296</v>
+        <v>54</v>
       </c>
       <c r="M79" s="7">
         <v>1</v>
@@ -5776,13 +5440,13 @@
         <v>929</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>297</v>
+        <v>246</v>
       </c>
       <c r="P79" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>298</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -5803,7 +5467,7 @@
         <v>11</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="H80" s="7">
         <v>0</v>
@@ -5818,7 +5482,7 @@
         <v>11</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>286</v>
+        <v>117</v>
       </c>
       <c r="M80" s="7">
         <v>0</v>
@@ -5833,7 +5497,7 @@
         <v>11</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>115</v>
+        <v>243</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -5848,13 +5512,13 @@
         <v>3174</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>222</v>
+        <v>42</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>291</v>
+        <v>243</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>299</v>
+        <v>247</v>
       </c>
       <c r="H81" s="7">
         <v>0</v>
@@ -5869,7 +5533,7 @@
         <v>11</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>286</v>
+        <v>117</v>
       </c>
       <c r="M81" s="7">
         <v>3</v>
@@ -5878,13 +5542,13 @@
         <v>3174</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>300</v>
+        <v>244</v>
       </c>
       <c r="P81" s="7" t="s">
-        <v>294</v>
+        <v>245</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>301</v>
+        <v>248</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -5899,13 +5563,13 @@
         <v>5294</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>302</v>
+        <v>249</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>303</v>
+        <v>157</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="H82" s="7">
         <v>0</v>
@@ -5920,7 +5584,7 @@
         <v>11</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>286</v>
+        <v>117</v>
       </c>
       <c r="M82" s="7">
         <v>4</v>
@@ -5929,13 +5593,13 @@
         <v>5294</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>305</v>
+        <v>79</v>
       </c>
       <c r="P82" s="7" t="s">
-        <v>306</v>
+        <v>128</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>307</v>
+        <v>251</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -5950,13 +5614,13 @@
         <v>4368</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>308</v>
+        <v>252</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>54</v>
+        <v>229</v>
       </c>
       <c r="H83" s="7">
         <v>3</v>
@@ -5965,13 +5629,13 @@
         <v>2983</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>100</v>
+        <v>188</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>309</v>
+        <v>253</v>
       </c>
       <c r="M83" s="7">
         <v>7</v>
@@ -5980,13 +5644,13 @@
         <v>7351</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="P83" s="7" t="s">
-        <v>311</v>
+        <v>154</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>312</v>
+        <v>192</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
@@ -6001,13 +5665,13 @@
         <v>29013</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>313</v>
+        <v>254</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>314</v>
+        <v>255</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>315</v>
+        <v>256</v>
       </c>
       <c r="H84" s="7">
         <v>7</v>
@@ -6016,28 +5680,28 @@
         <v>7398</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>316</v>
+        <v>97</v>
       </c>
       <c r="K84" s="7" t="s">
-        <v>317</v>
+        <v>257</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>318</v>
+        <v>258</v>
       </c>
       <c r="M84" s="7">
         <v>33</v>
       </c>
       <c r="N84" s="7">
-        <v>36410</v>
+        <v>36411</v>
       </c>
       <c r="O84" s="7" t="s">
-        <v>204</v>
+        <v>259</v>
       </c>
       <c r="P84" s="7" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>320</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
@@ -6052,13 +5716,13 @@
         <v>36585</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>321</v>
+        <v>261</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>322</v>
+        <v>262</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>323</v>
+        <v>263</v>
       </c>
       <c r="H85" s="7">
         <v>17</v>
@@ -6067,13 +5731,13 @@
         <v>17196</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>324</v>
+        <v>264</v>
       </c>
       <c r="K85" s="7" t="s">
-        <v>325</v>
+        <v>265</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>326</v>
+        <v>266</v>
       </c>
       <c r="M85" s="7">
         <v>50</v>
@@ -6082,13 +5746,13 @@
         <v>53780</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>327</v>
+        <v>267</v>
       </c>
       <c r="P85" s="7" t="s">
-        <v>328</v>
+        <v>268</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>329</v>
+        <v>269</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
@@ -6097,49 +5761,49 @@
         <v>0</v>
       </c>
       <c r="C86" s="7">
-        <v>9</v>
+        <v>495</v>
       </c>
       <c r="D86" s="7">
-        <v>10796</v>
+        <v>560903</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>88</v>
+        <v>270</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>16</v>
+        <v>271</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>330</v>
+        <v>272</v>
       </c>
       <c r="H86" s="7">
-        <v>5</v>
+        <v>612</v>
       </c>
       <c r="I86" s="7">
-        <v>6896</v>
+        <v>656779</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>331</v>
+        <v>273</v>
       </c>
       <c r="K86" s="7" t="s">
-        <v>332</v>
+        <v>274</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>333</v>
+        <v>275</v>
       </c>
       <c r="M86" s="7">
-        <v>14</v>
+        <v>1107</v>
       </c>
       <c r="N86" s="7">
-        <v>17692</v>
+        <v>1217682</v>
       </c>
       <c r="O86" s="7" t="s">
-        <v>334</v>
+        <v>276</v>
       </c>
       <c r="P86" s="7" t="s">
-        <v>335</v>
+        <v>277</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>336</v>
+        <v>278</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
@@ -6148,10 +5812,10 @@
         <v>3</v>
       </c>
       <c r="C87" s="7">
-        <v>83</v>
+        <v>569</v>
       </c>
       <c r="D87" s="7">
-        <v>93953</v>
+        <v>644060</v>
       </c>
       <c r="E87" s="7" t="s">
         <v>77</v>
@@ -6163,10 +5827,10 @@
         <v>77</v>
       </c>
       <c r="H87" s="7">
-        <v>33</v>
+        <v>640</v>
       </c>
       <c r="I87" s="7">
-        <v>35402</v>
+        <v>685285</v>
       </c>
       <c r="J87" s="7" t="s">
         <v>77</v>
@@ -6178,10 +5842,10 @@
         <v>77</v>
       </c>
       <c r="M87" s="7">
-        <v>116</v>
+        <v>1209</v>
       </c>
       <c r="N87" s="7">
-        <v>129355</v>
+        <v>1329345</v>
       </c>
       <c r="O87" s="7" t="s">
         <v>77</v>
@@ -6195,7 +5859,7 @@
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>337</v>
+        <v>279</v>
       </c>
       <c r="B88" s="5">
         <v>10</v>
@@ -6213,7 +5877,7 @@
         <v>11</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="H88" s="7">
         <v>0</v>
@@ -6228,7 +5892,7 @@
         <v>11</v>
       </c>
       <c r="L88" s="7" t="s">
-        <v>75</v>
+        <v>280</v>
       </c>
       <c r="M88" s="7">
         <v>0</v>
@@ -6243,7 +5907,7 @@
         <v>11</v>
       </c>
       <c r="Q88" s="7" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
@@ -6264,7 +5928,7 @@
         <v>11</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="H89" s="7">
         <v>0</v>
@@ -6279,7 +5943,7 @@
         <v>11</v>
       </c>
       <c r="L89" s="7" t="s">
-        <v>75</v>
+        <v>280</v>
       </c>
       <c r="M89" s="7">
         <v>0</v>
@@ -6294,7 +5958,7 @@
         <v>11</v>
       </c>
       <c r="Q89" s="7" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
@@ -6309,13 +5973,13 @@
         <v>921</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>338</v>
+        <v>156</v>
       </c>
       <c r="F90" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>339</v>
+        <v>35</v>
       </c>
       <c r="H90" s="7">
         <v>0</v>
@@ -6330,7 +5994,7 @@
         <v>11</v>
       </c>
       <c r="L90" s="7" t="s">
-        <v>75</v>
+        <v>280</v>
       </c>
       <c r="M90" s="7">
         <v>1</v>
@@ -6339,13 +6003,13 @@
         <v>921</v>
       </c>
       <c r="O90" s="7" t="s">
-        <v>340</v>
+        <v>281</v>
       </c>
       <c r="P90" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q90" s="7" t="s">
-        <v>341</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
@@ -6366,7 +6030,7 @@
         <v>11</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="H91" s="7">
         <v>0</v>
@@ -6381,7 +6045,7 @@
         <v>11</v>
       </c>
       <c r="L91" s="7" t="s">
-        <v>75</v>
+        <v>280</v>
       </c>
       <c r="M91" s="7">
         <v>0</v>
@@ -6396,7 +6060,7 @@
         <v>11</v>
       </c>
       <c r="Q91" s="7" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
@@ -6417,7 +6081,7 @@
         <v>11</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="H92" s="7">
         <v>0</v>
@@ -6432,7 +6096,7 @@
         <v>11</v>
       </c>
       <c r="L92" s="7" t="s">
-        <v>75</v>
+        <v>280</v>
       </c>
       <c r="M92" s="7">
         <v>0</v>
@@ -6447,7 +6111,7 @@
         <v>11</v>
       </c>
       <c r="Q92" s="7" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
@@ -6468,7 +6132,7 @@
         <v>11</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="H93" s="7">
         <v>0</v>
@@ -6483,7 +6147,7 @@
         <v>11</v>
       </c>
       <c r="L93" s="7" t="s">
-        <v>75</v>
+        <v>280</v>
       </c>
       <c r="M93" s="7">
         <v>0</v>
@@ -6498,7 +6162,7 @@
         <v>11</v>
       </c>
       <c r="Q93" s="7" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
@@ -6519,7 +6183,7 @@
         <v>11</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="H94" s="7">
         <v>0</v>
@@ -6534,7 +6198,7 @@
         <v>11</v>
       </c>
       <c r="L94" s="7" t="s">
-        <v>75</v>
+        <v>280</v>
       </c>
       <c r="M94" s="7">
         <v>0</v>
@@ -6549,7 +6213,7 @@
         <v>11</v>
       </c>
       <c r="Q94" s="7" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.3">
@@ -6564,13 +6228,13 @@
         <v>3521</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>342</v>
+        <v>190</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>343</v>
+        <v>156</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>344</v>
+        <v>93</v>
       </c>
       <c r="H95" s="7">
         <v>0</v>
@@ -6585,7 +6249,7 @@
         <v>11</v>
       </c>
       <c r="L95" s="7" t="s">
-        <v>75</v>
+        <v>280</v>
       </c>
       <c r="M95" s="7">
         <v>3</v>
@@ -6594,13 +6258,13 @@
         <v>3521</v>
       </c>
       <c r="O95" s="7" t="s">
-        <v>345</v>
+        <v>157</v>
       </c>
       <c r="P95" s="7" t="s">
-        <v>346</v>
+        <v>281</v>
       </c>
       <c r="Q95" s="7" t="s">
-        <v>347</v>
+        <v>159</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
@@ -6615,28 +6279,28 @@
         <v>22998</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>348</v>
+        <v>268</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>349</v>
+        <v>282</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>350</v>
+        <v>283</v>
       </c>
       <c r="H96" s="7">
         <v>6</v>
       </c>
       <c r="I96" s="7">
-        <v>5890</v>
+        <v>5889</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>351</v>
+        <v>248</v>
       </c>
       <c r="K96" s="7" t="s">
-        <v>352</v>
+        <v>244</v>
       </c>
       <c r="L96" s="7" t="s">
-        <v>58</v>
+        <v>265</v>
       </c>
       <c r="M96" s="7">
         <v>29</v>
@@ -6645,13 +6309,13 @@
         <v>28887</v>
       </c>
       <c r="O96" s="7" t="s">
-        <v>353</v>
+        <v>166</v>
       </c>
       <c r="P96" s="7" t="s">
-        <v>354</v>
+        <v>284</v>
       </c>
       <c r="Q96" s="7" t="s">
-        <v>355</v>
+        <v>285</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.3">
@@ -6666,13 +6330,13 @@
         <v>39187</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>356</v>
+        <v>286</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>357</v>
+        <v>287</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>358</v>
+        <v>288</v>
       </c>
       <c r="H97" s="7">
         <v>21</v>
@@ -6681,13 +6345,13 @@
         <v>21192</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>359</v>
+        <v>289</v>
       </c>
       <c r="K97" s="7" t="s">
-        <v>360</v>
+        <v>152</v>
       </c>
       <c r="L97" s="7" t="s">
-        <v>361</v>
+        <v>66</v>
       </c>
       <c r="M97" s="7">
         <v>58</v>
@@ -6696,13 +6360,13 @@
         <v>60379</v>
       </c>
       <c r="O97" s="7" t="s">
-        <v>362</v>
+        <v>130</v>
       </c>
       <c r="P97" s="7" t="s">
-        <v>363</v>
+        <v>290</v>
       </c>
       <c r="Q97" s="7" t="s">
-        <v>364</v>
+        <v>291</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
@@ -6711,49 +6375,49 @@
         <v>0</v>
       </c>
       <c r="C98" s="7">
-        <v>6</v>
+        <v>684</v>
       </c>
       <c r="D98" s="7">
-        <v>5722</v>
+        <v>709979</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>68</v>
+        <v>292</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>365</v>
+        <v>293</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>366</v>
+        <v>294</v>
       </c>
       <c r="H98" s="7">
-        <v>3</v>
+        <v>728</v>
       </c>
       <c r="I98" s="7">
-        <v>2995</v>
+        <v>799085</v>
       </c>
       <c r="J98" s="7" t="s">
-        <v>367</v>
+        <v>295</v>
       </c>
       <c r="K98" s="7" t="s">
-        <v>368</v>
+        <v>296</v>
       </c>
       <c r="L98" s="7" t="s">
-        <v>369</v>
+        <v>297</v>
       </c>
       <c r="M98" s="7">
-        <v>9</v>
+        <v>1412</v>
       </c>
       <c r="N98" s="7">
-        <v>8717</v>
+        <v>1509064</v>
       </c>
       <c r="O98" s="7" t="s">
-        <v>370</v>
+        <v>298</v>
       </c>
       <c r="P98" s="7" t="s">
-        <v>371</v>
+        <v>299</v>
       </c>
       <c r="Q98" s="7" t="s">
-        <v>372</v>
+        <v>300</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
@@ -6762,10 +6426,10 @@
         <v>3</v>
       </c>
       <c r="C99" s="7">
-        <v>70</v>
+        <v>748</v>
       </c>
       <c r="D99" s="7">
-        <v>72348</v>
+        <v>776605</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>77</v>
@@ -6777,10 +6441,10 @@
         <v>77</v>
       </c>
       <c r="H99" s="7">
-        <v>30</v>
+        <v>755</v>
       </c>
       <c r="I99" s="7">
-        <v>30077</v>
+        <v>826167</v>
       </c>
       <c r="J99" s="7" t="s">
         <v>77</v>
@@ -6792,10 +6456,10 @@
         <v>77</v>
       </c>
       <c r="M99" s="7">
-        <v>100</v>
+        <v>1503</v>
       </c>
       <c r="N99" s="7">
-        <v>102425</v>
+        <v>1602772</v>
       </c>
       <c r="O99" s="7" t="s">
         <v>77</v>
@@ -6821,13 +6485,13 @@
         <v>1472</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>373</v>
+        <v>301</v>
       </c>
       <c r="F100" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>374</v>
+        <v>280</v>
       </c>
       <c r="H100" s="7">
         <v>0</v>
@@ -6842,7 +6506,7 @@
         <v>11</v>
       </c>
       <c r="L100" s="7" t="s">
-        <v>182</v>
+        <v>281</v>
       </c>
       <c r="M100" s="7">
         <v>1</v>
@@ -6851,13 +6515,13 @@
         <v>1472</v>
       </c>
       <c r="O100" s="7" t="s">
-        <v>375</v>
+        <v>302</v>
       </c>
       <c r="P100" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q100" s="7" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
@@ -6872,13 +6536,13 @@
         <v>1022</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="F101" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="H101" s="7">
         <v>0</v>
@@ -6893,7 +6557,7 @@
         <v>11</v>
       </c>
       <c r="L101" s="7" t="s">
-        <v>182</v>
+        <v>281</v>
       </c>
       <c r="M101" s="7">
         <v>1</v>
@@ -6902,13 +6566,13 @@
         <v>1022</v>
       </c>
       <c r="O101" s="7" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="P101" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q101" s="7" t="s">
-        <v>378</v>
+        <v>246</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
@@ -6923,13 +6587,13 @@
         <v>15410</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>379</v>
+        <v>257</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>381</v>
+        <v>91</v>
       </c>
       <c r="H102" s="7">
         <v>2</v>
@@ -6938,13 +6602,13 @@
         <v>2049</v>
       </c>
       <c r="J102" s="7" t="s">
-        <v>382</v>
+        <v>281</v>
       </c>
       <c r="K102" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L102" s="7" t="s">
-        <v>383</v>
+        <v>80</v>
       </c>
       <c r="M102" s="7">
         <v>16</v>
@@ -6953,13 +6617,13 @@
         <v>17459</v>
       </c>
       <c r="O102" s="7" t="s">
-        <v>384</v>
+        <v>280</v>
       </c>
       <c r="P102" s="7" t="s">
-        <v>385</v>
+        <v>119</v>
       </c>
       <c r="Q102" s="7" t="s">
-        <v>386</v>
+        <v>305</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
@@ -6974,13 +6638,13 @@
         <v>1237</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>387</v>
+        <v>301</v>
       </c>
       <c r="F103" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="H103" s="7">
         <v>1</v>
@@ -6989,13 +6653,13 @@
         <v>929</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>388</v>
+        <v>303</v>
       </c>
       <c r="K103" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L103" s="7" t="s">
-        <v>389</v>
+        <v>128</v>
       </c>
       <c r="M103" s="7">
         <v>2</v>
@@ -7004,13 +6668,13 @@
         <v>2166</v>
       </c>
       <c r="O103" s="7" t="s">
-        <v>390</v>
+        <v>303</v>
       </c>
       <c r="P103" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q103" s="7" t="s">
-        <v>391</v>
+        <v>241</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.3">
@@ -7025,13 +6689,13 @@
         <v>6671</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>392</v>
+        <v>80</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>393</v>
+        <v>246</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>394</v>
+        <v>188</v>
       </c>
       <c r="H104" s="7">
         <v>1</v>
@@ -7040,13 +6704,13 @@
         <v>1536</v>
       </c>
       <c r="J104" s="7" t="s">
-        <v>395</v>
+        <v>301</v>
       </c>
       <c r="K104" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L104" s="7" t="s">
-        <v>396</v>
+        <v>157</v>
       </c>
       <c r="M104" s="7">
         <v>7</v>
@@ -7055,13 +6719,13 @@
         <v>8207</v>
       </c>
       <c r="O104" s="7" t="s">
-        <v>87</v>
+        <v>156</v>
       </c>
       <c r="P104" s="7" t="s">
-        <v>397</v>
+        <v>306</v>
       </c>
       <c r="Q104" s="7" t="s">
-        <v>398</v>
+        <v>154</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.3">
@@ -7076,13 +6740,13 @@
         <v>11418</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>399</v>
+        <v>242</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>400</v>
+        <v>243</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>401</v>
+        <v>35</v>
       </c>
       <c r="H105" s="7">
         <v>2</v>
@@ -7097,7 +6761,7 @@
         <v>10</v>
       </c>
       <c r="L105" s="7" t="s">
-        <v>402</v>
+        <v>243</v>
       </c>
       <c r="M105" s="7">
         <v>13</v>
@@ -7106,13 +6770,13 @@
         <v>13127</v>
       </c>
       <c r="O105" s="7" t="s">
-        <v>403</v>
+        <v>82</v>
       </c>
       <c r="P105" s="7" t="s">
-        <v>404</v>
+        <v>85</v>
       </c>
       <c r="Q105" s="7" t="s">
-        <v>405</v>
+        <v>307</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.3">
@@ -7127,13 +6791,13 @@
         <v>10041</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>406</v>
+        <v>117</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>407</v>
+        <v>128</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>408</v>
+        <v>35</v>
       </c>
       <c r="H106" s="7">
         <v>2</v>
@@ -7142,13 +6806,13 @@
         <v>1783</v>
       </c>
       <c r="J106" s="7" t="s">
-        <v>409</v>
+        <v>306</v>
       </c>
       <c r="K106" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L106" s="7" t="s">
-        <v>410</v>
+        <v>119</v>
       </c>
       <c r="M106" s="7">
         <v>10</v>
@@ -7157,13 +6821,13 @@
         <v>11824</v>
       </c>
       <c r="O106" s="7" t="s">
-        <v>411</v>
+        <v>252</v>
       </c>
       <c r="P106" s="7" t="s">
-        <v>346</v>
+        <v>245</v>
       </c>
       <c r="Q106" s="7" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.3">
@@ -7178,13 +6842,13 @@
         <v>27439</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>412</v>
+        <v>308</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>402</v>
+        <v>309</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>413</v>
+        <v>310</v>
       </c>
       <c r="H107" s="7">
         <v>6</v>
@@ -7193,13 +6857,13 @@
         <v>5877</v>
       </c>
       <c r="J107" s="7" t="s">
-        <v>414</v>
+        <v>252</v>
       </c>
       <c r="K107" s="7" t="s">
-        <v>415</v>
+        <v>281</v>
       </c>
       <c r="L107" s="7" t="s">
-        <v>416</v>
+        <v>14</v>
       </c>
       <c r="M107" s="7">
         <v>31</v>
@@ -7208,13 +6872,13 @@
         <v>33317</v>
       </c>
       <c r="O107" s="7" t="s">
-        <v>417</v>
+        <v>311</v>
       </c>
       <c r="P107" s="7" t="s">
-        <v>418</v>
+        <v>242</v>
       </c>
       <c r="Q107" s="7" t="s">
-        <v>419</v>
+        <v>129</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.3">
@@ -7229,13 +6893,13 @@
         <v>135827</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>420</v>
+        <v>312</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>421</v>
+        <v>41</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>422</v>
+        <v>313</v>
       </c>
       <c r="H108" s="7">
         <v>33</v>
@@ -7244,13 +6908,13 @@
         <v>33401</v>
       </c>
       <c r="J108" s="7" t="s">
-        <v>423</v>
+        <v>83</v>
       </c>
       <c r="K108" s="7" t="s">
-        <v>424</v>
+        <v>230</v>
       </c>
       <c r="L108" s="7" t="s">
-        <v>425</v>
+        <v>47</v>
       </c>
       <c r="M108" s="7">
         <v>163</v>
@@ -7259,13 +6923,13 @@
         <v>169228</v>
       </c>
       <c r="O108" s="7" t="s">
-        <v>247</v>
+        <v>314</v>
       </c>
       <c r="P108" s="7" t="s">
-        <v>426</v>
+        <v>315</v>
       </c>
       <c r="Q108" s="7" t="s">
-        <v>427</v>
+        <v>316</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.3">
@@ -7280,13 +6944,13 @@
         <v>207511</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>428</v>
+        <v>317</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>261</v>
+        <v>318</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>429</v>
+        <v>319</v>
       </c>
       <c r="H109" s="7">
         <v>81</v>
@@ -7295,13 +6959,13 @@
         <v>80647</v>
       </c>
       <c r="J109" s="7" t="s">
-        <v>430</v>
+        <v>320</v>
       </c>
       <c r="K109" s="7" t="s">
-        <v>431</v>
+        <v>260</v>
       </c>
       <c r="L109" s="7" t="s">
-        <v>432</v>
+        <v>321</v>
       </c>
       <c r="M109" s="7">
         <v>278</v>
@@ -7310,13 +6974,13 @@
         <v>288158</v>
       </c>
       <c r="O109" s="7" t="s">
-        <v>433</v>
+        <v>322</v>
       </c>
       <c r="P109" s="7" t="s">
-        <v>434</v>
+        <v>95</v>
       </c>
       <c r="Q109" s="7" t="s">
-        <v>435</v>
+        <v>323</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.3">
@@ -7325,49 +6989,49 @@
         <v>0</v>
       </c>
       <c r="C110" s="7">
-        <v>47</v>
+        <v>2821</v>
       </c>
       <c r="D110" s="7">
-        <v>52028</v>
+        <v>2958372</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>436</v>
+        <v>324</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>437</v>
+        <v>325</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>438</v>
+        <v>326</v>
       </c>
       <c r="H110" s="7">
-        <v>28</v>
+        <v>3196</v>
       </c>
       <c r="I110" s="7">
-        <v>29404</v>
+        <v>3401407</v>
       </c>
       <c r="J110" s="7" t="s">
-        <v>439</v>
+        <v>327</v>
       </c>
       <c r="K110" s="7" t="s">
-        <v>440</v>
+        <v>328</v>
       </c>
       <c r="L110" s="7" t="s">
-        <v>441</v>
+        <v>329</v>
       </c>
       <c r="M110" s="7">
-        <v>75</v>
+        <v>6017</v>
       </c>
       <c r="N110" s="7">
-        <v>81431</v>
+        <v>6359779</v>
       </c>
       <c r="O110" s="7" t="s">
-        <v>442</v>
+        <v>330</v>
       </c>
       <c r="P110" s="7" t="s">
-        <v>443</v>
+        <v>331</v>
       </c>
       <c r="Q110" s="7" t="s">
-        <v>444</v>
+        <v>332</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.3">
@@ -7376,10 +7040,10 @@
         <v>3</v>
       </c>
       <c r="C111" s="7">
-        <v>441</v>
+        <v>3215</v>
       </c>
       <c r="D111" s="7">
-        <v>470075</v>
+        <v>3376419</v>
       </c>
       <c r="E111" s="7" t="s">
         <v>77</v>
@@ -7391,10 +7055,10 @@
         <v>77</v>
       </c>
       <c r="H111" s="7">
-        <v>156</v>
+        <v>3324</v>
       </c>
       <c r="I111" s="7">
-        <v>157336</v>
+        <v>3529339</v>
       </c>
       <c r="J111" s="7" t="s">
         <v>77</v>
@@ -7406,10 +7070,10 @@
         <v>77</v>
       </c>
       <c r="M111" s="7">
-        <v>597</v>
+        <v>6539</v>
       </c>
       <c r="N111" s="7">
-        <v>627411</v>
+        <v>6905758</v>
       </c>
       <c r="O111" s="7" t="s">
         <v>77</v>
@@ -7423,7 +7087,7 @@
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>445</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
